--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_10_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_10_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>923717.8194507248</v>
+        <v>922420.7348535615</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21481687.8327996</v>
+        <v>21481687.83279959</v>
       </c>
     </row>
     <row r="8">
@@ -664,22 +664,22 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>159.80369519941</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>198.9508041116468</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -746,7 +746,7 @@
         <v>94.13938596491228</v>
       </c>
       <c r="E3" t="n">
-        <v>93.17921052631583</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F3" t="n">
         <v>82.55</v>
@@ -755,7 +755,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H3" t="n">
-        <v>41.31829566194965</v>
+        <v>41.31829566194966</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30.81774305632759</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -828,7 +828,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>161.767609684519</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -879,7 +879,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -901,13 +901,13 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>239.7359503305275</v>
       </c>
       <c r="F5" t="n">
-        <v>227.0455002540596</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1056,7 +1056,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>55.98791483140027</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1068,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1116,7 +1116,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>105.1419155199462</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D8" t="n">
-        <v>36.31245239731295</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>223.9674059688891</v>
       </c>
     </row>
     <row r="9">
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>50.00008659069456</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>220.9631761055128</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1359,7 +1359,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1384,10 +1384,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>396.7339930256583</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>279.5834739041102</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>68.00666947778936</v>
       </c>
       <c r="T11" t="n">
-        <v>215.0217925423652</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.5780908531684</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>261.145470786823</v>
       </c>
       <c r="X11" t="n">
-        <v>16.98873937995354</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1539,7 +1539,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>110.2989037409322</v>
       </c>
       <c r="G13" t="n">
         <v>163.6438573839239</v>
@@ -1548,7 +1548,7 @@
         <v>135.9114095300244</v>
       </c>
       <c r="I13" t="n">
-        <v>79.00700416583425</v>
+        <v>79.00700416583423</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>8.09652543489978</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>79.83121546632358</v>
+        <v>152.5688206581533</v>
       </c>
       <c r="T13" t="n">
         <v>242.1751312751644</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>364.6146824843879</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>281.1414813979064</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1621,7 +1621,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>396.7339930256583</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>135.9114095300244</v>
       </c>
       <c r="I16" t="n">
-        <v>79.00700416583425</v>
+        <v>6.269398974004788</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>8.09652543489978</v>
+        <v>8.096525434899778</v>
       </c>
       <c r="S16" t="n">
-        <v>79.83121546632358</v>
+        <v>152.5688206581533</v>
       </c>
       <c r="T16" t="n">
         <v>242.1751312751644</v>
@@ -1846,7 +1846,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884117</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1861,7 +1861,7 @@
         <v>396.7339930256583</v>
       </c>
       <c r="H17" t="n">
-        <v>279.5834739041102</v>
+        <v>279.5834739041108</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>91.48160767866362</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2019,10 +2019,10 @@
         <v>163.6438573839239</v>
       </c>
       <c r="H19" t="n">
-        <v>63.1738043381955</v>
+        <v>135.9114095300244</v>
       </c>
       <c r="I19" t="n">
-        <v>79.00700416583425</v>
+        <v>79.00700416583423</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>8.09652543489978</v>
+        <v>8.096525434899778</v>
       </c>
       <c r="S19" t="n">
         <v>152.5688206581533</v>
@@ -2146,10 +2146,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864831</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633441</v>
       </c>
     </row>
     <row r="21">
@@ -2244,7 +2244,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>91.48160767866362</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2256,10 +2256,10 @@
         <v>163.6438573839239</v>
       </c>
       <c r="H22" t="n">
-        <v>135.9114095300244</v>
+        <v>71.27032977309904</v>
       </c>
       <c r="I22" t="n">
-        <v>79.00700416583425</v>
+        <v>79.00700416583423</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>8.09652543489978</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>152.5688206581533</v>
@@ -2481,7 +2481,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>91.48160767866362</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2496,7 +2496,7 @@
         <v>135.9114095300244</v>
       </c>
       <c r="I25" t="n">
-        <v>79.00700416583425</v>
+        <v>14.36592440890527</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>8.09652543489978</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>152.5688206581533</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>68.00666947778936</v>
+        <v>68.0066694777895</v>
       </c>
       <c r="T26" t="n">
         <v>215.0217925423652</v>
       </c>
       <c r="U26" t="n">
-        <v>256.5780908531686</v>
+        <v>256.5780908531684</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
@@ -2718,7 +2718,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>91.48160767866362</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2733,7 +2733,7 @@
         <v>135.9114095300244</v>
       </c>
       <c r="I28" t="n">
-        <v>79.00700416583425</v>
+        <v>79.00700416583423</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>8.09652543489978</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>152.5688206581533</v>
+        <v>87.9277409012244</v>
       </c>
       <c r="T28" t="n">
         <v>242.1751312751644</v>
@@ -2848,7 +2848,7 @@
         <v>215.0217925423652</v>
       </c>
       <c r="U29" t="n">
-        <v>256.5780908531696</v>
+        <v>256.5780908531684</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -2970,7 +2970,7 @@
         <v>135.9114095300244</v>
       </c>
       <c r="I31" t="n">
-        <v>6.269398974008952</v>
+        <v>79.00700416583423</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>8.09652543489978</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>152.5688206581533</v>
       </c>
       <c r="T31" t="n">
-        <v>242.1751312751644</v>
+        <v>177.5340515182391</v>
       </c>
       <c r="U31" t="n">
         <v>275.632770475398</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800578</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -3201,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.6438573839239</v>
+        <v>99.002777626995</v>
       </c>
       <c r="H34" t="n">
         <v>135.9114095300244</v>
       </c>
       <c r="I34" t="n">
-        <v>79.00700416583425</v>
+        <v>79.00700416583423</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>8.09652543489978</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>152.5688206581533</v>
@@ -3246,7 +3246,7 @@
         <v>275.632770475398</v>
       </c>
       <c r="V34" t="n">
-        <v>211.348347856445</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3277,7 +3277,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.588755294884</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>396.7339930256583</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>68.00666947778936</v>
+        <v>68.00666947779041</v>
       </c>
       <c r="T35" t="n">
         <v>215.0217925423652</v>
@@ -3426,13 +3426,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>106.1950146446783</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>95.32281851994128</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>8.096525434899778</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>152.5688206581533</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>68.00666947778936</v>
+        <v>68.0066694777895</v>
       </c>
       <c r="T38" t="n">
         <v>215.0217925423652</v>
       </c>
       <c r="U38" t="n">
-        <v>256.5780908531677</v>
+        <v>256.5780908531686</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -3675,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.6438573839239</v>
+        <v>99.00277762699766</v>
       </c>
       <c r="H40" t="n">
         <v>135.9114095300244</v>
       </c>
       <c r="I40" t="n">
-        <v>6.269398974005378</v>
+        <v>79.00700416583423</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>8.096525434899778</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>152.5688206581533</v>
@@ -3742,16 +3742,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>384.0615163544362</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>186.2148555325013</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>396.7339930256583</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>215.0217925423652</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3963,7 +3963,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>178.2967573629922</v>
+        <v>178.2967573629927</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -3988,13 +3988,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>412.6200216152816</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>396.7339930256583</v>
       </c>
       <c r="H44" t="n">
-        <v>279.5834739041102</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,16 +4030,16 @@
         <v>68.00666947778936</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>215.0217925423652</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.5780908531684</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>219.0514316090326</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>163.6438573839239</v>
       </c>
       <c r="H46" t="n">
-        <v>63.17380433819496</v>
+        <v>135.9114095300244</v>
       </c>
       <c r="I46" t="n">
         <v>79.00700416583423</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>8.096525434899778</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>152.5688206581533</v>
@@ -4191,7 +4191,7 @@
         <v>242.1751312751644</v>
       </c>
       <c r="U46" t="n">
-        <v>275.632770475398</v>
+        <v>210.991690718469</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>687.7796263806115</v>
+        <v>443.0234284442651</v>
       </c>
       <c r="C2" t="n">
-        <v>653.6775576044388</v>
+        <v>408.9213596680925</v>
       </c>
       <c r="D2" t="n">
-        <v>225.0958833417071</v>
+        <v>377.0519788829411</v>
       </c>
       <c r="E2" t="n">
-        <v>195.3615425404064</v>
+        <v>347.3176380816403</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L2" t="n">
         <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="O2" t="n">
-        <v>857.0776321906106</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P2" t="n">
-        <v>1277.130531135514</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q2" t="n">
         <v>1697.183430080417</v>
@@ -4357,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1134.24202645431</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V2" t="n">
-        <v>1134.24202645431</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="W2" t="n">
-        <v>729.3865718653431</v>
+        <v>670.4887227422939</v>
       </c>
       <c r="X2" t="n">
-        <v>714.2845124850578</v>
+        <v>469.5283145487113</v>
       </c>
       <c r="Y2" t="n">
-        <v>710.0387928251153</v>
+        <v>465.2825948887688</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>161.064410519212</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539589</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4415,16 +4415,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>807.2216621053868</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="C4" t="n">
-        <v>634.6599505886118</v>
+        <v>532.694573269002</v>
       </c>
       <c r="D4" t="n">
-        <v>634.6599505886118</v>
+        <v>532.694573269002</v>
       </c>
       <c r="E4" t="n">
-        <v>464.9019468393491</v>
+        <v>362.9365695197393</v>
       </c>
       <c r="F4" t="n">
-        <v>288.1948928011053</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4497,16 +4497,16 @@
         <v>813.4916901053949</v>
       </c>
       <c r="M4" t="n">
-        <v>1233.544589050298</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N4" t="n">
-        <v>1653.597487995201</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4515,25 +4515,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1675.765608785789</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1397.332608038895</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>1110.377099909325</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>838.3506954956167</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="X4" t="n">
-        <v>838.3506954956167</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="Y4" t="n">
-        <v>838.3506954956167</v>
+        <v>705.2562847857771</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>358.9883481097479</v>
+        <v>763.0287521501522</v>
       </c>
       <c r="C5" t="n">
-        <v>324.8862793335753</v>
+        <v>728.9266833739796</v>
       </c>
       <c r="D5" t="n">
-        <v>293.0168985484239</v>
+        <v>300.3450091112479</v>
       </c>
       <c r="E5" t="n">
-        <v>263.2825577471231</v>
+        <v>58.18748352485655</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I5" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P5" t="n">
         <v>1107.976466382457</v>
@@ -4606,13 +4606,13 @@
         <v>1613.531556264254</v>
       </c>
       <c r="W5" t="n">
-        <v>1208.676101675288</v>
+        <v>1612.716505715692</v>
       </c>
       <c r="X5" t="n">
-        <v>789.5336382545983</v>
+        <v>1597.614446335406</v>
       </c>
       <c r="Y5" t="n">
-        <v>785.2879185946557</v>
+        <v>1189.32832263506</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M6" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N6" t="n">
-        <v>437.0247332457074</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O6" t="n">
-        <v>857.0776321906106</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P6" t="n">
-        <v>1277.130531135514</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q6" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R6" t="n">
         <v>1697.183430080417</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.0966550925557</v>
+        <v>319.0592414612053</v>
       </c>
       <c r="C7" t="n">
-        <v>199.5349435757807</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="D7" t="n">
-        <v>199.5349435757807</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="E7" t="n">
-        <v>199.5349435757807</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="F7" t="n">
-        <v>199.5349435757807</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I7" t="n">
         <v>33.94366860160834</v>
@@ -4734,16 +4734,16 @@
         <v>813.4916901053949</v>
       </c>
       <c r="M7" t="n">
-        <v>929.6236371651722</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N7" t="n">
-        <v>1349.676536110076</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O7" t="n">
-        <v>1349.676536110076</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q7" t="n">
         <v>1697.183430080417</v>
@@ -4752,25 +4752,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.765608785789</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T7" t="n">
-        <v>1429.886162364244</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U7" t="n">
-        <v>1429.886162364244</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="V7" t="n">
-        <v>1142.930654234675</v>
+        <v>983.6892855326716</v>
       </c>
       <c r="W7" t="n">
-        <v>1036.726699164022</v>
+        <v>983.6892855326716</v>
       </c>
       <c r="X7" t="n">
-        <v>791.3349444974347</v>
+        <v>738.2975308660841</v>
       </c>
       <c r="Y7" t="n">
-        <v>563.9152738115429</v>
+        <v>510.8778601801924</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>846.6806259663152</v>
+        <v>945.0851728516207</v>
       </c>
       <c r="C8" t="n">
-        <v>812.5785571901426</v>
+        <v>516.503498588889</v>
       </c>
       <c r="D8" t="n">
-        <v>775.899312344372</v>
+        <v>87.92182432615731</v>
       </c>
       <c r="E8" t="n">
-        <v>347.3176380816403</v>
+        <v>58.18748352485655</v>
       </c>
       <c r="F8" t="n">
-        <v>323.4906125312521</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G8" t="n">
-        <v>323.4906125312521</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H8" t="n">
         <v>34.36045797446834</v>
@@ -4804,25 +4804,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K8" t="n">
-        <v>33.94366860160834</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N8" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P8" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q8" t="n">
         <v>1528.02936532736</v>
@@ -4831,25 +4831,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>1612.716505715692</v>
       </c>
       <c r="X8" t="n">
-        <v>1277.225916111166</v>
+        <v>1597.614446335406</v>
       </c>
       <c r="Y8" t="n">
-        <v>868.939792410819</v>
+        <v>1371.384743336529</v>
       </c>
     </row>
     <row r="9">
@@ -4892,19 +4892,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="M9" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N9" t="n">
-        <v>1224.671464618085</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O9" t="n">
-        <v>1224.671464618085</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P9" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q9" t="n">
-        <v>1644.724363562988</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R9" t="n">
         <v>1697.183430080417</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>383.2124341566272</v>
+        <v>707.7326516402958</v>
       </c>
       <c r="C10" t="n">
-        <v>210.6507226398521</v>
+        <v>535.1709401235207</v>
       </c>
       <c r="D10" t="n">
-        <v>210.6507226398521</v>
+        <v>369.2929473250434</v>
       </c>
       <c r="E10" t="n">
-        <v>210.6507226398521</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G10" t="n">
         <v>33.94366860160834</v>
@@ -4989,25 +4989,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S10" t="n">
-        <v>1516.524240083786</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T10" t="n">
-        <v>1516.524240083786</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U10" t="n">
-        <v>1238.091239336891</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="V10" t="n">
-        <v>951.1357312073217</v>
+        <v>1452.570481406483</v>
       </c>
       <c r="W10" t="n">
-        <v>679.1093267936133</v>
+        <v>1180.544076992775</v>
       </c>
       <c r="X10" t="n">
-        <v>433.7175721270257</v>
+        <v>935.1523223261875</v>
       </c>
       <c r="Y10" t="n">
-        <v>433.7175721270257</v>
+        <v>707.7326516402958</v>
       </c>
     </row>
     <row r="11">
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2042.173543246199</v>
+        <v>1794.934371577039</v>
       </c>
       <c r="C11" t="n">
-        <v>1604.031070429623</v>
+        <v>1356.791898760462</v>
       </c>
       <c r="D11" t="n">
-        <v>1604.031070429623</v>
+        <v>920.8821139349068</v>
       </c>
       <c r="E11" t="n">
-        <v>1170.256325587918</v>
+        <v>487.107369093202</v>
       </c>
       <c r="F11" t="n">
-        <v>742.3888959971255</v>
+        <v>59.23993950240976</v>
       </c>
       <c r="G11" t="n">
-        <v>341.6474889005009</v>
+        <v>59.23993950240976</v>
       </c>
       <c r="H11" t="n">
-        <v>59.23993950240975</v>
+        <v>59.23993950240976</v>
       </c>
       <c r="I11" t="n">
         <v>83.63463603559688</v>
       </c>
       <c r="J11" t="n">
-        <v>138.2391337938583</v>
+        <v>573.4938212467763</v>
       </c>
       <c r="K11" t="n">
-        <v>871.3333851361789</v>
+        <v>655.3318086305957</v>
       </c>
       <c r="L11" t="n">
-        <v>1067.196130012704</v>
+        <v>756.8590685900866</v>
       </c>
       <c r="M11" t="n">
-        <v>1180.164768926329</v>
+        <v>869.8277075037121</v>
       </c>
       <c r="N11" t="n">
-        <v>1294.961358522653</v>
+        <v>984.6242971000358</v>
       </c>
       <c r="O11" t="n">
-        <v>1403.360522830431</v>
+        <v>1717.718548442356</v>
       </c>
       <c r="P11" t="n">
         <v>2136.454774172752</v>
@@ -5068,25 +5068,25 @@
         <v>2961.996975120488</v>
       </c>
       <c r="S11" t="n">
-        <v>2961.996975120488</v>
+        <v>2893.303369587367</v>
       </c>
       <c r="T11" t="n">
-        <v>2744.803245279715</v>
+        <v>2893.303369587367</v>
       </c>
       <c r="U11" t="n">
-        <v>2485.633456539141</v>
+        <v>2893.303369587367</v>
       </c>
       <c r="V11" t="n">
-        <v>2485.633456539141</v>
+        <v>2893.303369587367</v>
       </c>
       <c r="W11" t="n">
-        <v>2485.633456539141</v>
+        <v>2629.520065762294</v>
       </c>
       <c r="X11" t="n">
-        <v>2468.473113731107</v>
+        <v>2629.520065762294</v>
       </c>
       <c r="Y11" t="n">
-        <v>2468.473113731107</v>
+        <v>2221.233942061947</v>
       </c>
     </row>
     <row r="12">
@@ -5111,10 +5111,10 @@
         <v>182.6174374443819</v>
       </c>
       <c r="G12" t="n">
-        <v>97.58356566383489</v>
+        <v>97.5835656638349</v>
       </c>
       <c r="H12" t="n">
-        <v>59.23993950240975</v>
+        <v>59.23993950240976</v>
       </c>
       <c r="I12" t="n">
         <v>97.15534696371266</v>
@@ -5123,13 +5123,13 @@
         <v>454.2357367164866</v>
       </c>
       <c r="K12" t="n">
-        <v>509.8211254749861</v>
+        <v>588.4267622644032</v>
       </c>
       <c r="L12" t="n">
-        <v>584.56254032382</v>
+        <v>663.1681771132372</v>
       </c>
       <c r="M12" t="n">
-        <v>671.7822461276205</v>
+        <v>750.3878829170377</v>
       </c>
       <c r="N12" t="n">
         <v>839.9160348031302</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1126.53083400899</v>
+        <v>1061.236814052495</v>
       </c>
       <c r="C13" t="n">
-        <v>953.9691224922145</v>
+        <v>888.6751025357204</v>
       </c>
       <c r="D13" t="n">
-        <v>788.0911296937372</v>
+        <v>722.7971097372431</v>
       </c>
       <c r="E13" t="n">
-        <v>618.3331259444744</v>
+        <v>553.0391059879803</v>
       </c>
       <c r="F13" t="n">
-        <v>441.6260719062306</v>
+        <v>441.6260719062305</v>
       </c>
       <c r="G13" t="n">
         <v>276.3292462659034</v>
       </c>
       <c r="H13" t="n">
-        <v>139.0449942153737</v>
+        <v>139.0449942153736</v>
       </c>
       <c r="I13" t="n">
-        <v>59.23993950240975</v>
+        <v>59.23993950240976</v>
       </c>
       <c r="J13" t="n">
         <v>166.2229229686835</v>
       </c>
       <c r="K13" t="n">
-        <v>474.5102642948972</v>
+        <v>474.5102642948971</v>
       </c>
       <c r="L13" t="n">
-        <v>935.6255775176741</v>
+        <v>935.6255775176742</v>
       </c>
       <c r="M13" t="n">
-        <v>1440.347206382296</v>
+        <v>1440.347206382297</v>
       </c>
       <c r="N13" t="n">
-        <v>1926.768118362181</v>
+        <v>1926.768118362182</v>
       </c>
       <c r="O13" t="n">
-        <v>2387.228222929743</v>
+        <v>2387.228222929744</v>
       </c>
       <c r="P13" t="n">
-        <v>2769.638740482992</v>
+        <v>2769.638740482993</v>
       </c>
       <c r="Q13" t="n">
         <v>2961.996975120488</v>
       </c>
       <c r="R13" t="n">
-        <v>2953.818666600387</v>
+        <v>2961.996975120488</v>
       </c>
       <c r="S13" t="n">
-        <v>2873.181075220262</v>
+        <v>2807.887055263768</v>
       </c>
       <c r="T13" t="n">
-        <v>2628.559730497874</v>
+        <v>2563.26571054138</v>
       </c>
       <c r="U13" t="n">
-        <v>2350.142790623734</v>
+        <v>2284.84877066724</v>
       </c>
       <c r="V13" t="n">
-        <v>2063.187282494165</v>
+        <v>1997.89326253767</v>
       </c>
       <c r="W13" t="n">
-        <v>1791.160878080456</v>
+        <v>1725.866858123962</v>
       </c>
       <c r="X13" t="n">
-        <v>1545.769123413869</v>
+        <v>1480.475103457374</v>
       </c>
       <c r="Y13" t="n">
-        <v>1318.349452727977</v>
+        <v>1253.055432771483</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2125.830964932226</v>
+        <v>1643.005881092803</v>
       </c>
       <c r="C14" t="n">
-        <v>1757.533305857087</v>
+        <v>1204.863408276226</v>
       </c>
       <c r="D14" t="n">
-        <v>1321.623521031531</v>
+        <v>920.8821139349068</v>
       </c>
       <c r="E14" t="n">
-        <v>887.8487761898266</v>
+        <v>487.107369093202</v>
       </c>
       <c r="F14" t="n">
-        <v>459.9813465990343</v>
+        <v>59.23993950240975</v>
       </c>
       <c r="G14" t="n">
         <v>59.23993950240975</v>
@@ -5278,28 +5278,28 @@
         <v>83.63463603559688</v>
       </c>
       <c r="J14" t="n">
-        <v>138.2391337938583</v>
+        <v>573.4938212467763</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0771211776778</v>
+        <v>1306.588072589097</v>
       </c>
       <c r="L14" t="n">
-        <v>953.1713725199985</v>
+        <v>1408.115332548588</v>
       </c>
       <c r="M14" t="n">
-        <v>1686.265623862319</v>
+        <v>1521.083971462213</v>
       </c>
       <c r="N14" t="n">
-        <v>2419.35987520464</v>
+        <v>1635.880561058537</v>
       </c>
       <c r="O14" t="n">
-        <v>2759.591446051017</v>
+        <v>1744.279725366315</v>
       </c>
       <c r="P14" t="n">
-        <v>2852.107624884403</v>
+        <v>2136.454774172752</v>
       </c>
       <c r="Q14" t="n">
-        <v>2921.583422257472</v>
+        <v>2752.429357504415</v>
       </c>
       <c r="R14" t="n">
         <v>2961.996975120488</v>
@@ -5314,16 +5314,16 @@
         <v>2893.303369587367</v>
       </c>
       <c r="V14" t="n">
-        <v>2530.686419521193</v>
+        <v>2893.303369587367</v>
       </c>
       <c r="W14" t="n">
-        <v>2125.830964932226</v>
+        <v>2488.4479149984</v>
       </c>
       <c r="X14" t="n">
-        <v>2125.830964932226</v>
+        <v>2069.305451577711</v>
       </c>
       <c r="Y14" t="n">
-        <v>2125.830964932226</v>
+        <v>2069.305451577711</v>
       </c>
     </row>
     <row r="15">
@@ -5360,16 +5360,16 @@
         <v>454.2357367164866</v>
       </c>
       <c r="K15" t="n">
-        <v>509.8211254749861</v>
+        <v>588.4267622644032</v>
       </c>
       <c r="L15" t="n">
-        <v>584.56254032382</v>
+        <v>663.1681771132372</v>
       </c>
       <c r="M15" t="n">
-        <v>671.7822461276205</v>
+        <v>750.3878829170377</v>
       </c>
       <c r="N15" t="n">
-        <v>761.310398013713</v>
+        <v>839.9160348031302</v>
       </c>
       <c r="O15" t="n">
         <v>921.8168030347168</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1126.53083400899</v>
+        <v>1053.058505532394</v>
       </c>
       <c r="C16" t="n">
-        <v>953.9691224922145</v>
+        <v>880.496794015619</v>
       </c>
       <c r="D16" t="n">
-        <v>788.0911296937372</v>
+        <v>714.6188012171417</v>
       </c>
       <c r="E16" t="n">
-        <v>618.3331259444744</v>
+        <v>544.8607974678789</v>
       </c>
       <c r="F16" t="n">
-        <v>441.6260719062306</v>
+        <v>368.1537434296351</v>
       </c>
       <c r="G16" t="n">
-        <v>276.3292462659034</v>
+        <v>202.8569177893079</v>
       </c>
       <c r="H16" t="n">
-        <v>139.0449942153737</v>
+        <v>65.57266573877823</v>
       </c>
       <c r="I16" t="n">
         <v>59.23993950240975</v>
@@ -5442,19 +5442,19 @@
         <v>474.5102642948971</v>
       </c>
       <c r="L16" t="n">
-        <v>935.6255775176738</v>
+        <v>935.6255775176741</v>
       </c>
       <c r="M16" t="n">
-        <v>1440.347206382296</v>
+        <v>1440.347206382297</v>
       </c>
       <c r="N16" t="n">
-        <v>1926.768118362181</v>
+        <v>1926.768118362182</v>
       </c>
       <c r="O16" t="n">
-        <v>2387.228222929743</v>
+        <v>2387.228222929744</v>
       </c>
       <c r="P16" t="n">
-        <v>2769.638740482992</v>
+        <v>2769.638740482993</v>
       </c>
       <c r="Q16" t="n">
         <v>2961.996975120488</v>
@@ -5463,25 +5463,25 @@
         <v>2953.818666600387</v>
       </c>
       <c r="S16" t="n">
-        <v>2873.181075220262</v>
+        <v>2799.708746743666</v>
       </c>
       <c r="T16" t="n">
-        <v>2628.559730497874</v>
+        <v>2555.087402021278</v>
       </c>
       <c r="U16" t="n">
-        <v>2350.142790623734</v>
+        <v>2276.670462147139</v>
       </c>
       <c r="V16" t="n">
-        <v>2063.187282494165</v>
+        <v>1989.714954017569</v>
       </c>
       <c r="W16" t="n">
-        <v>1791.160878080456</v>
+        <v>1717.688549603861</v>
       </c>
       <c r="X16" t="n">
-        <v>1545.769123413869</v>
+        <v>1472.296794937273</v>
       </c>
       <c r="Y16" t="n">
-        <v>1318.349452727977</v>
+        <v>1244.877124251381</v>
       </c>
     </row>
     <row r="17">
@@ -5497,16 +5497,16 @@
         <v>2082.437672384297</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.527887558741</v>
+        <v>1646.527887558742</v>
       </c>
       <c r="E17" t="n">
-        <v>1212.753142717036</v>
+        <v>1212.753142717037</v>
       </c>
       <c r="F17" t="n">
-        <v>784.8857131262441</v>
+        <v>784.8857131262448</v>
       </c>
       <c r="G17" t="n">
-        <v>384.1443060296197</v>
+        <v>384.1443060296203</v>
       </c>
       <c r="H17" t="n">
         <v>101.7367566315285</v>
@@ -5515,28 +5515,28 @@
         <v>126.1314531647157</v>
       </c>
       <c r="J17" t="n">
-        <v>183.7376962968928</v>
+        <v>615.9906383758951</v>
       </c>
       <c r="K17" t="n">
-        <v>1099.92597563889</v>
+        <v>1532.178917717893</v>
       </c>
       <c r="L17" t="n">
-        <v>2276.51320185124</v>
+        <v>2024.125517573874</v>
       </c>
       <c r="M17" t="n">
-        <v>3535.505565166406</v>
+        <v>2137.094156487499</v>
       </c>
       <c r="N17" t="n">
-        <v>4776.033138199176</v>
+        <v>2251.890746083823</v>
       </c>
       <c r="O17" t="n">
-        <v>4884.432302506954</v>
+        <v>3340.469576961907</v>
       </c>
       <c r="P17" t="n">
-        <v>4976.948481340341</v>
+        <v>4261.295630628691</v>
       </c>
       <c r="Q17" t="n">
-        <v>5046.42427871341</v>
+        <v>4877.270213960353</v>
       </c>
       <c r="R17" t="n">
         <v>5086.837831576426</v>
@@ -5591,31 +5591,31 @@
         <v>101.7367566315285</v>
       </c>
       <c r="I18" t="n">
-        <v>113.5884909323738</v>
+        <v>139.6521640928314</v>
       </c>
       <c r="J18" t="n">
-        <v>146.1105557189354</v>
+        <v>496.7325538456054</v>
       </c>
       <c r="K18" t="n">
-        <v>201.695944477435</v>
+        <v>552.3179426041049</v>
       </c>
       <c r="L18" t="n">
-        <v>276.437359326269</v>
+        <v>627.059357452939</v>
       </c>
       <c r="M18" t="n">
-        <v>1450.796416772572</v>
+        <v>714.2790632567394</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.324568658664</v>
+        <v>803.8072151428319</v>
       </c>
       <c r="O18" t="n">
-        <v>1622.225336890251</v>
+        <v>885.7079833744185</v>
       </c>
       <c r="P18" t="n">
-        <v>1687.957923895372</v>
+        <v>1030.046207168957</v>
       </c>
       <c r="Q18" t="n">
-        <v>1731.89841753764</v>
+        <v>1614.7256394433</v>
       </c>
       <c r="R18" t="n">
         <v>1753.270793430986</v>
@@ -5655,16 +5655,16 @@
         <v>922.9936111447383</v>
       </c>
       <c r="D19" t="n">
-        <v>757.115618346261</v>
+        <v>830.5879468228559</v>
       </c>
       <c r="E19" t="n">
-        <v>587.3576145969982</v>
+        <v>660.8299430735931</v>
       </c>
       <c r="F19" t="n">
-        <v>410.6505605587545</v>
+        <v>484.1228890353493</v>
       </c>
       <c r="G19" t="n">
-        <v>245.3537349184273</v>
+        <v>318.8260633950221</v>
       </c>
       <c r="H19" t="n">
         <v>181.5418113444924</v>
@@ -5752,16 +5752,16 @@
         <v>126.1314531647157</v>
       </c>
       <c r="J20" t="n">
-        <v>180.7359509229771</v>
+        <v>615.9906383758951</v>
       </c>
       <c r="K20" t="n">
-        <v>262.5739383067966</v>
+        <v>697.8286257597146</v>
       </c>
       <c r="L20" t="n">
-        <v>1439.161164519147</v>
+        <v>799.3558857192055</v>
       </c>
       <c r="M20" t="n">
-        <v>1552.129803432772</v>
+        <v>1011.363173051052</v>
       </c>
       <c r="N20" t="n">
         <v>2251.890746083823</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1095.555322661513</v>
+        <v>1103.733631181618</v>
       </c>
       <c r="C22" t="n">
-        <v>922.9936111447383</v>
+        <v>931.1719196648429</v>
       </c>
       <c r="D22" t="n">
-        <v>830.5879468228559</v>
+        <v>765.2939268663656</v>
       </c>
       <c r="E22" t="n">
-        <v>660.8299430735932</v>
+        <v>595.5359231171028</v>
       </c>
       <c r="F22" t="n">
-        <v>484.1228890353494</v>
+        <v>418.828869078859</v>
       </c>
       <c r="G22" t="n">
-        <v>318.8260633950222</v>
+        <v>253.5320434385318</v>
       </c>
       <c r="H22" t="n">
         <v>181.5418113444924</v>
@@ -5925,37 +5925,37 @@
         <v>1969.2649354913</v>
       </c>
       <c r="O22" t="n">
-        <v>2429.725040058862</v>
+        <v>2429.725040058865</v>
       </c>
       <c r="P22" t="n">
-        <v>2812.135557612112</v>
+        <v>2812.135557612115</v>
       </c>
       <c r="Q22" t="n">
-        <v>3004.493792249607</v>
+        <v>3004.493792249611</v>
       </c>
       <c r="R22" t="n">
-        <v>2996.315483729506</v>
+        <v>3004.493792249611</v>
       </c>
       <c r="S22" t="n">
-        <v>2842.205563872786</v>
+        <v>2850.38387239289</v>
       </c>
       <c r="T22" t="n">
-        <v>2597.584219150398</v>
+        <v>2605.762527670502</v>
       </c>
       <c r="U22" t="n">
-        <v>2319.167279276258</v>
+        <v>2327.345587796362</v>
       </c>
       <c r="V22" t="n">
-        <v>2032.211771146688</v>
+        <v>2040.390079666793</v>
       </c>
       <c r="W22" t="n">
-        <v>1760.18536673298</v>
+        <v>1768.363675253084</v>
       </c>
       <c r="X22" t="n">
-        <v>1514.793612066392</v>
+        <v>1522.971920586497</v>
       </c>
       <c r="Y22" t="n">
-        <v>1287.373941380501</v>
+        <v>1295.552249900605</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>126.1314531647157</v>
       </c>
       <c r="J23" t="n">
-        <v>180.7359509229771</v>
+        <v>615.9906383758951</v>
       </c>
       <c r="K23" t="n">
-        <v>262.5739383067966</v>
+        <v>1532.178917717893</v>
       </c>
       <c r="L23" t="n">
-        <v>1439.161164519147</v>
+        <v>1633.706177677383</v>
       </c>
       <c r="M23" t="n">
-        <v>1552.129803432772</v>
+        <v>1746.674816591009</v>
       </c>
       <c r="N23" t="n">
-        <v>2421.04481083688</v>
+        <v>2251.890746083823</v>
       </c>
       <c r="O23" t="n">
-        <v>3509.623641714964</v>
+        <v>3340.469576961907</v>
       </c>
       <c r="P23" t="n">
-        <v>4430.449695381748</v>
+        <v>4261.295630628691</v>
       </c>
       <c r="Q23" t="n">
-        <v>5046.42427871341</v>
+        <v>4877.270213960353</v>
       </c>
       <c r="R23" t="n">
         <v>5086.837831576426</v>
@@ -6065,31 +6065,31 @@
         <v>101.7367566315285</v>
       </c>
       <c r="I24" t="n">
-        <v>113.5884909323738</v>
+        <v>139.6521640928314</v>
       </c>
       <c r="J24" t="n">
-        <v>146.1105557189354</v>
+        <v>496.7325538456054</v>
       </c>
       <c r="K24" t="n">
-        <v>201.695944477435</v>
+        <v>552.3179426041049</v>
       </c>
       <c r="L24" t="n">
-        <v>276.437359326269</v>
+        <v>627.059357452939</v>
       </c>
       <c r="M24" t="n">
-        <v>1450.796416772572</v>
+        <v>714.2790632567394</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.324568658664</v>
+        <v>803.8072151428319</v>
       </c>
       <c r="O24" t="n">
-        <v>1622.225336890251</v>
+        <v>885.7079833744185</v>
       </c>
       <c r="P24" t="n">
-        <v>1687.957923895372</v>
+        <v>1030.046207168957</v>
       </c>
       <c r="Q24" t="n">
-        <v>1731.89841753764</v>
+        <v>1614.7256394433</v>
       </c>
       <c r="R24" t="n">
         <v>1753.270793430986</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1095.555322661513</v>
+        <v>1103.733631181614</v>
       </c>
       <c r="C25" t="n">
-        <v>922.9936111447383</v>
+        <v>931.1719196648393</v>
       </c>
       <c r="D25" t="n">
-        <v>830.5879468228559</v>
+        <v>765.293926866362</v>
       </c>
       <c r="E25" t="n">
-        <v>660.8299430735932</v>
+        <v>595.5359231170992</v>
       </c>
       <c r="F25" t="n">
-        <v>484.1228890353494</v>
+        <v>418.8288690788554</v>
       </c>
       <c r="G25" t="n">
-        <v>318.8260633950222</v>
+        <v>253.5320434385282</v>
       </c>
       <c r="H25" t="n">
-        <v>181.5418113444924</v>
+        <v>116.2477913879985</v>
       </c>
       <c r="I25" t="n">
         <v>101.7367566315285</v>
@@ -6171,28 +6171,28 @@
         <v>3004.493792249607</v>
       </c>
       <c r="R25" t="n">
-        <v>2996.315483729506</v>
+        <v>3004.493792249607</v>
       </c>
       <c r="S25" t="n">
-        <v>2842.205563872786</v>
+        <v>2850.383872392887</v>
       </c>
       <c r="T25" t="n">
-        <v>2597.584219150398</v>
+        <v>2605.762527670498</v>
       </c>
       <c r="U25" t="n">
-        <v>2319.167279276258</v>
+        <v>2327.345587796359</v>
       </c>
       <c r="V25" t="n">
-        <v>2032.211771146688</v>
+        <v>2040.390079666789</v>
       </c>
       <c r="W25" t="n">
-        <v>1760.18536673298</v>
+        <v>1768.363675253081</v>
       </c>
       <c r="X25" t="n">
-        <v>1514.793612066392</v>
+        <v>1522.971920586493</v>
       </c>
       <c r="Y25" t="n">
-        <v>1287.373941380501</v>
+        <v>1295.552249900602</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2520.580145200874</v>
+        <v>2520.580145200873</v>
       </c>
       <c r="C26" t="n">
         <v>2082.437672384297</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.527887558742</v>
+        <v>1646.527887558741</v>
       </c>
       <c r="E26" t="n">
-        <v>1212.753142717037</v>
+        <v>1212.753142717036</v>
       </c>
       <c r="F26" t="n">
-        <v>784.8857131262446</v>
+        <v>784.8857131262441</v>
       </c>
       <c r="G26" t="n">
         <v>384.1443060296197</v>
@@ -6223,55 +6223,55 @@
         <v>101.7367566315285</v>
       </c>
       <c r="I26" t="n">
-        <v>126.1314531647157</v>
+        <v>126.1314531647156</v>
       </c>
       <c r="J26" t="n">
-        <v>615.9906383758951</v>
+        <v>615.9906383758949</v>
       </c>
       <c r="K26" t="n">
-        <v>1532.178917717893</v>
+        <v>1532.178917717892</v>
       </c>
       <c r="L26" t="n">
-        <v>1633.706177677383</v>
+        <v>2024.125517573872</v>
       </c>
       <c r="M26" t="n">
-        <v>1746.674816591009</v>
+        <v>2137.094156487497</v>
       </c>
       <c r="N26" t="n">
-        <v>2987.20238962378</v>
+        <v>2251.890746083821</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.781220501864</v>
+        <v>3340.469576961906</v>
       </c>
       <c r="P26" t="n">
-        <v>4261.295630628691</v>
+        <v>4261.29563062869</v>
       </c>
       <c r="Q26" t="n">
         <v>4877.270213960353</v>
       </c>
       <c r="R26" t="n">
-        <v>5086.837831576426</v>
+        <v>5086.837831576425</v>
       </c>
       <c r="S26" t="n">
-        <v>5018.144226043305</v>
+        <v>5018.144226043304</v>
       </c>
       <c r="T26" t="n">
-        <v>4800.950496202532</v>
+        <v>4800.950496202531</v>
       </c>
       <c r="U26" t="n">
-        <v>4541.780707461958</v>
+        <v>4541.780707461957</v>
       </c>
       <c r="V26" t="n">
-        <v>4179.163757395784</v>
+        <v>4179.163757395783</v>
       </c>
       <c r="W26" t="n">
-        <v>3774.308302806818</v>
+        <v>3774.308302806817</v>
       </c>
       <c r="X26" t="n">
         <v>3355.165839386128</v>
       </c>
       <c r="Y26" t="n">
-        <v>2946.879715685782</v>
+        <v>2946.879715685781</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>604.1652576471898</v>
+        <v>604.1652576471897</v>
       </c>
       <c r="C27" t="n">
-        <v>497.7087964838321</v>
+        <v>497.708796483832</v>
       </c>
       <c r="D27" t="n">
-        <v>402.6185076303854</v>
+        <v>402.6185076303853</v>
       </c>
       <c r="E27" t="n">
-        <v>308.4980929573391</v>
+        <v>308.498092957339</v>
       </c>
       <c r="F27" t="n">
-        <v>225.1142545735007</v>
+        <v>225.1142545735006</v>
       </c>
       <c r="G27" t="n">
-        <v>140.0803827929537</v>
+        <v>140.0803827929536</v>
       </c>
       <c r="H27" t="n">
         <v>101.7367566315285</v>
       </c>
       <c r="I27" t="n">
-        <v>139.6521640928314</v>
+        <v>113.5884909323738</v>
       </c>
       <c r="J27" t="n">
-        <v>496.7325538456054</v>
+        <v>470.6688806851478</v>
       </c>
       <c r="K27" t="n">
-        <v>552.3179426041049</v>
+        <v>1171.662518025598</v>
       </c>
       <c r="L27" t="n">
-        <v>627.0593574529389</v>
+        <v>1246.403932874432</v>
       </c>
       <c r="M27" t="n">
-        <v>714.2790632567393</v>
+        <v>1333.623638678232</v>
       </c>
       <c r="N27" t="n">
-        <v>803.8072151428318</v>
+        <v>1423.151790564325</v>
       </c>
       <c r="O27" t="n">
-        <v>885.7079833744184</v>
+        <v>1505.052558795911</v>
       </c>
       <c r="P27" t="n">
-        <v>1030.046207168957</v>
+        <v>1570.785145801033</v>
       </c>
       <c r="Q27" t="n">
         <v>1614.7256394433</v>
@@ -6347,10 +6347,10 @@
         <v>1006.822373708852</v>
       </c>
       <c r="X27" t="n">
-        <v>851.9549379477322</v>
+        <v>851.9549379477321</v>
       </c>
       <c r="Y27" t="n">
-        <v>725.469158726953</v>
+        <v>725.4691587269529</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1095.555322661513</v>
+        <v>1169.027651138108</v>
       </c>
       <c r="C28" t="n">
-        <v>922.9936111447383</v>
+        <v>996.4659396213332</v>
       </c>
       <c r="D28" t="n">
         <v>830.5879468228559</v>
       </c>
       <c r="E28" t="n">
-        <v>660.8299430735932</v>
+        <v>660.8299430735931</v>
       </c>
       <c r="F28" t="n">
-        <v>484.1228890353494</v>
+        <v>484.1228890353493</v>
       </c>
       <c r="G28" t="n">
-        <v>318.8260633950222</v>
+        <v>318.8260633950221</v>
       </c>
       <c r="H28" t="n">
         <v>181.5418113444924</v>
@@ -6408,28 +6408,28 @@
         <v>3004.493792249607</v>
       </c>
       <c r="R28" t="n">
-        <v>2996.315483729506</v>
+        <v>3004.493792249607</v>
       </c>
       <c r="S28" t="n">
-        <v>2842.205563872786</v>
+        <v>2915.67789234938</v>
       </c>
       <c r="T28" t="n">
-        <v>2597.584219150398</v>
+        <v>2671.056547626992</v>
       </c>
       <c r="U28" t="n">
-        <v>2319.167279276258</v>
+        <v>2392.639607752852</v>
       </c>
       <c r="V28" t="n">
-        <v>2032.211771146688</v>
+        <v>2105.684099623283</v>
       </c>
       <c r="W28" t="n">
-        <v>1760.18536673298</v>
+        <v>1833.657695209575</v>
       </c>
       <c r="X28" t="n">
-        <v>1514.793612066392</v>
+        <v>1588.265940542987</v>
       </c>
       <c r="Y28" t="n">
-        <v>1287.373941380501</v>
+        <v>1360.846269857095</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1212.753142717036</v>
       </c>
       <c r="F29" t="n">
-        <v>784.8857131262441</v>
+        <v>784.8857131262439</v>
       </c>
       <c r="G29" t="n">
         <v>384.1443060296197</v>
@@ -6460,40 +6460,40 @@
         <v>101.7367566315285</v>
       </c>
       <c r="I29" t="n">
-        <v>126.1314531647157</v>
+        <v>126.1314531647156</v>
       </c>
       <c r="J29" t="n">
-        <v>180.7359509229771</v>
+        <v>615.9906383758949</v>
       </c>
       <c r="K29" t="n">
-        <v>262.5739383067966</v>
+        <v>930.7719108858332</v>
       </c>
       <c r="L29" t="n">
-        <v>1439.161164519147</v>
+        <v>2107.359137098184</v>
       </c>
       <c r="M29" t="n">
-        <v>2555.325898596099</v>
+        <v>3366.351500413348</v>
       </c>
       <c r="N29" t="n">
-        <v>3795.85347162887</v>
+        <v>4606.879073446119</v>
       </c>
       <c r="O29" t="n">
-        <v>4884.432302506954</v>
+        <v>4715.278237753897</v>
       </c>
       <c r="P29" t="n">
-        <v>4976.948481340341</v>
+        <v>4807.794416587284</v>
       </c>
       <c r="Q29" t="n">
-        <v>5046.42427871341</v>
+        <v>4877.270213960353</v>
       </c>
       <c r="R29" t="n">
-        <v>5086.837831576426</v>
+        <v>5086.837831576425</v>
       </c>
       <c r="S29" t="n">
-        <v>5018.144226043305</v>
+        <v>5018.144226043304</v>
       </c>
       <c r="T29" t="n">
-        <v>4800.950496202532</v>
+        <v>4800.950496202531</v>
       </c>
       <c r="U29" t="n">
         <v>4541.780707461957</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3937.73229579263</v>
+        <v>604.1652576471897</v>
       </c>
       <c r="C30" t="n">
-        <v>3831.275834629272</v>
+        <v>497.708796483832</v>
       </c>
       <c r="D30" t="n">
-        <v>3736.185545775825</v>
+        <v>402.6185076303853</v>
       </c>
       <c r="E30" t="n">
-        <v>3642.065131102779</v>
+        <v>308.498092957339</v>
       </c>
       <c r="F30" t="n">
-        <v>3558.681292718941</v>
+        <v>225.1142545735006</v>
       </c>
       <c r="G30" t="n">
-        <v>3473.647420938394</v>
+        <v>140.0803827929536</v>
       </c>
       <c r="H30" t="n">
-        <v>3435.303794776969</v>
+        <v>101.7367566315285</v>
       </c>
       <c r="I30" t="n">
-        <v>3473.219202238271</v>
+        <v>113.5884909323738</v>
       </c>
       <c r="J30" t="n">
-        <v>3830.299591991045</v>
+        <v>146.1105557189354</v>
       </c>
       <c r="K30" t="n">
-        <v>3964.490617538961</v>
+        <v>201.695944477435</v>
       </c>
       <c r="L30" t="n">
-        <v>4039.232032387795</v>
+        <v>276.437359326269</v>
       </c>
       <c r="M30" t="n">
-        <v>4126.451738191596</v>
+        <v>363.6570651300694</v>
       </c>
       <c r="N30" t="n">
-        <v>4215.979890077689</v>
+        <v>1540.324568658664</v>
       </c>
       <c r="O30" t="n">
-        <v>4297.880658309276</v>
+        <v>1622.225336890251</v>
       </c>
       <c r="P30" t="n">
-        <v>4363.613245314396</v>
+        <v>1687.957923895372</v>
       </c>
       <c r="Q30" t="n">
-        <v>4948.29267758874</v>
+        <v>1731.89841753764</v>
       </c>
       <c r="R30" t="n">
-        <v>5086.837831576426</v>
+        <v>1753.270793430986</v>
       </c>
       <c r="S30" t="n">
-        <v>5029.906113463821</v>
+        <v>1696.339075318381</v>
       </c>
       <c r="T30" t="n">
-        <v>4901.143124614837</v>
+        <v>1567.576086469397</v>
       </c>
       <c r="U30" t="n">
-        <v>4724.829684059099</v>
+        <v>1391.262645913659</v>
       </c>
       <c r="V30" t="n">
-        <v>4525.712166121099</v>
+        <v>1192.145127975658</v>
       </c>
       <c r="W30" t="n">
-        <v>4340.389411854292</v>
+        <v>1006.822373708852</v>
       </c>
       <c r="X30" t="n">
-        <v>4185.521976093172</v>
+        <v>851.9549379477321</v>
       </c>
       <c r="Y30" t="n">
-        <v>4059.036196872393</v>
+        <v>725.4691587269529</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1095.555322661517</v>
+        <v>1169.027651138108</v>
       </c>
       <c r="C31" t="n">
-        <v>922.993611144742</v>
+        <v>996.4659396213332</v>
       </c>
       <c r="D31" t="n">
-        <v>757.1156183462647</v>
+        <v>830.5879468228559</v>
       </c>
       <c r="E31" t="n">
-        <v>587.3576145970019</v>
+        <v>660.8299430735931</v>
       </c>
       <c r="F31" t="n">
-        <v>410.6505605587581</v>
+        <v>484.1228890353493</v>
       </c>
       <c r="G31" t="n">
-        <v>245.3537349184309</v>
+        <v>318.8260633950221</v>
       </c>
       <c r="H31" t="n">
-        <v>108.0694828679012</v>
+        <v>181.5418113444924</v>
       </c>
       <c r="I31" t="n">
         <v>101.7367566315285</v>
@@ -6627,13 +6627,13 @@
         <v>517.0070814240158</v>
       </c>
       <c r="L31" t="n">
-        <v>978.1223946467965</v>
+        <v>978.1223946467927</v>
       </c>
       <c r="M31" t="n">
-        <v>1482.844023511419</v>
+        <v>1482.844023511416</v>
       </c>
       <c r="N31" t="n">
-        <v>1969.264935491304</v>
+        <v>1969.2649354913</v>
       </c>
       <c r="O31" t="n">
         <v>2429.725040058866</v>
@@ -6645,28 +6645,28 @@
         <v>3004.493792249611</v>
       </c>
       <c r="R31" t="n">
-        <v>2996.31548372951</v>
+        <v>3004.493792249611</v>
       </c>
       <c r="S31" t="n">
-        <v>2842.205563872789</v>
+        <v>2850.38387239289</v>
       </c>
       <c r="T31" t="n">
-        <v>2597.584219150401</v>
+        <v>2671.056547626992</v>
       </c>
       <c r="U31" t="n">
-        <v>2319.167279276262</v>
+        <v>2392.639607752852</v>
       </c>
       <c r="V31" t="n">
-        <v>2032.211771146692</v>
+        <v>2105.684099623283</v>
       </c>
       <c r="W31" t="n">
-        <v>1760.185366732984</v>
+        <v>1833.657695209575</v>
       </c>
       <c r="X31" t="n">
-        <v>1514.793612066396</v>
+        <v>1588.265940542987</v>
       </c>
       <c r="Y31" t="n">
-        <v>1287.373941380504</v>
+        <v>1360.846269857095</v>
       </c>
     </row>
     <row r="32">
@@ -6682,13 +6682,13 @@
         <v>2082.437672384297</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.527887558742</v>
+        <v>1646.527887558741</v>
       </c>
       <c r="E32" t="n">
         <v>1212.753142717037</v>
       </c>
       <c r="F32" t="n">
-        <v>784.8857131262448</v>
+        <v>784.8857131262444</v>
       </c>
       <c r="G32" t="n">
         <v>384.1443060296197</v>
@@ -6697,55 +6697,55 @@
         <v>101.7367566315285</v>
       </c>
       <c r="I32" t="n">
-        <v>126.1314531647157</v>
+        <v>126.1314531647156</v>
       </c>
       <c r="J32" t="n">
-        <v>615.9906383758951</v>
+        <v>615.9906383758949</v>
       </c>
       <c r="K32" t="n">
-        <v>847.538291361524</v>
+        <v>1532.178917717892</v>
       </c>
       <c r="L32" t="n">
-        <v>2024.125517573874</v>
+        <v>2024.125517573872</v>
       </c>
       <c r="M32" t="n">
-        <v>2137.0941564875</v>
+        <v>2137.094156487497</v>
       </c>
       <c r="N32" t="n">
-        <v>2251.890746083823</v>
+        <v>2251.890746083821</v>
       </c>
       <c r="O32" t="n">
-        <v>3340.469576961907</v>
+        <v>3340.469576961906</v>
       </c>
       <c r="P32" t="n">
-        <v>4261.295630628691</v>
+        <v>4261.29563062869</v>
       </c>
       <c r="Q32" t="n">
         <v>4877.270213960353</v>
       </c>
       <c r="R32" t="n">
-        <v>5086.837831576426</v>
+        <v>5086.837831576425</v>
       </c>
       <c r="S32" t="n">
-        <v>5018.144226043305</v>
+        <v>5018.144226043304</v>
       </c>
       <c r="T32" t="n">
-        <v>4800.950496202532</v>
+        <v>4800.950496202531</v>
       </c>
       <c r="U32" t="n">
-        <v>4541.780707461958</v>
+        <v>4541.780707461957</v>
       </c>
       <c r="V32" t="n">
-        <v>4179.163757395784</v>
+        <v>4179.163757395783</v>
       </c>
       <c r="W32" t="n">
-        <v>3774.308302806818</v>
+        <v>3774.308302806817</v>
       </c>
       <c r="X32" t="n">
         <v>3355.165839386128</v>
       </c>
       <c r="Y32" t="n">
-        <v>2946.879715685782</v>
+        <v>2946.879715685781</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3937.73229579263</v>
+        <v>604.1652576471897</v>
       </c>
       <c r="C33" t="n">
-        <v>3831.275834629272</v>
+        <v>497.708796483832</v>
       </c>
       <c r="D33" t="n">
-        <v>3736.185545775825</v>
+        <v>402.6185076303853</v>
       </c>
       <c r="E33" t="n">
-        <v>3642.065131102779</v>
+        <v>308.498092957339</v>
       </c>
       <c r="F33" t="n">
-        <v>3558.681292718941</v>
+        <v>225.1142545735006</v>
       </c>
       <c r="G33" t="n">
-        <v>3473.647420938394</v>
+        <v>140.0803827929536</v>
       </c>
       <c r="H33" t="n">
-        <v>3435.303794776969</v>
+        <v>101.7367566315285</v>
       </c>
       <c r="I33" t="n">
-        <v>3473.219202238271</v>
+        <v>113.5884909323738</v>
       </c>
       <c r="J33" t="n">
-        <v>3830.299591991045</v>
+        <v>146.1105557189354</v>
       </c>
       <c r="K33" t="n">
-        <v>3964.490617538961</v>
+        <v>469.1121296407393</v>
       </c>
       <c r="L33" t="n">
-        <v>4039.232032387795</v>
+        <v>543.8535444895732</v>
       </c>
       <c r="M33" t="n">
-        <v>4126.451738191596</v>
+        <v>631.0732502933737</v>
       </c>
       <c r="N33" t="n">
-        <v>4215.979890077689</v>
+        <v>720.6014021794662</v>
       </c>
       <c r="O33" t="n">
-        <v>4297.880658309276</v>
+        <v>802.5021704110528</v>
       </c>
       <c r="P33" t="n">
-        <v>4363.613245314396</v>
+        <v>1687.957923895372</v>
       </c>
       <c r="Q33" t="n">
-        <v>4948.29267758874</v>
+        <v>1731.89841753764</v>
       </c>
       <c r="R33" t="n">
-        <v>5086.837831576426</v>
+        <v>1753.270793430986</v>
       </c>
       <c r="S33" t="n">
-        <v>5029.906113463821</v>
+        <v>1696.339075318381</v>
       </c>
       <c r="T33" t="n">
-        <v>4901.143124614837</v>
+        <v>1567.576086469397</v>
       </c>
       <c r="U33" t="n">
-        <v>4724.829684059099</v>
+        <v>1391.262645913659</v>
       </c>
       <c r="V33" t="n">
-        <v>4525.712166121099</v>
+        <v>1192.145127975658</v>
       </c>
       <c r="W33" t="n">
-        <v>4340.389411854292</v>
+        <v>1006.822373708852</v>
       </c>
       <c r="X33" t="n">
-        <v>4185.521976093172</v>
+        <v>851.9549379477321</v>
       </c>
       <c r="Y33" t="n">
-        <v>4059.036196872393</v>
+        <v>725.4691587269529</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1169.027651138108</v>
+        <v>1103.733631181614</v>
       </c>
       <c r="C34" t="n">
-        <v>996.4659396213332</v>
+        <v>931.1719196648393</v>
       </c>
       <c r="D34" t="n">
-        <v>830.5879468228559</v>
+        <v>765.293926866362</v>
       </c>
       <c r="E34" t="n">
-        <v>660.8299430735932</v>
+        <v>595.5359231170992</v>
       </c>
       <c r="F34" t="n">
-        <v>484.1228890353494</v>
+        <v>418.8288690788554</v>
       </c>
       <c r="G34" t="n">
-        <v>318.8260633950222</v>
+        <v>318.8260633950221</v>
       </c>
       <c r="H34" t="n">
         <v>181.5418113444924</v>
@@ -6882,28 +6882,28 @@
         <v>3004.493792249607</v>
       </c>
       <c r="R34" t="n">
-        <v>2996.315483729506</v>
+        <v>3004.493792249607</v>
       </c>
       <c r="S34" t="n">
-        <v>2842.205563872786</v>
+        <v>2850.383872392887</v>
       </c>
       <c r="T34" t="n">
-        <v>2597.584219150398</v>
+        <v>2605.762527670498</v>
       </c>
       <c r="U34" t="n">
-        <v>2319.167279276258</v>
+        <v>2327.345587796359</v>
       </c>
       <c r="V34" t="n">
-        <v>2105.684099623283</v>
+        <v>2040.390079666789</v>
       </c>
       <c r="W34" t="n">
-        <v>1833.657695209575</v>
+        <v>1768.363675253081</v>
       </c>
       <c r="X34" t="n">
-        <v>1588.265940542987</v>
+        <v>1522.971920586493</v>
       </c>
       <c r="Y34" t="n">
-        <v>1360.846269857095</v>
+        <v>1295.552249900602</v>
       </c>
     </row>
     <row r="35">
@@ -6934,34 +6934,34 @@
         <v>101.7367566315285</v>
       </c>
       <c r="I35" t="n">
-        <v>126.1314531647156</v>
+        <v>126.1314531647157</v>
       </c>
       <c r="J35" t="n">
         <v>180.7359509229771</v>
       </c>
       <c r="K35" t="n">
-        <v>262.5739383067965</v>
+        <v>1096.924230264975</v>
       </c>
       <c r="L35" t="n">
-        <v>1439.161164519147</v>
+        <v>1198.451490224465</v>
       </c>
       <c r="M35" t="n">
-        <v>2698.153527834312</v>
+        <v>1311.420129138091</v>
       </c>
       <c r="N35" t="n">
-        <v>3795.853471628869</v>
+        <v>2551.947702170862</v>
       </c>
       <c r="O35" t="n">
-        <v>4884.432302506953</v>
+        <v>3640.526533048946</v>
       </c>
       <c r="P35" t="n">
-        <v>4976.948481340341</v>
+        <v>4561.352586715729</v>
       </c>
       <c r="Q35" t="n">
-        <v>5046.424278713409</v>
+        <v>5046.42427871341</v>
       </c>
       <c r="R35" t="n">
-        <v>5086.837831576425</v>
+        <v>5086.837831576426</v>
       </c>
       <c r="S35" t="n">
         <v>5018.144226043304</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3937.73229579263</v>
+        <v>604.1652576471898</v>
       </c>
       <c r="C36" t="n">
-        <v>3831.275834629272</v>
+        <v>497.7087964838321</v>
       </c>
       <c r="D36" t="n">
-        <v>3736.185545775825</v>
+        <v>402.6185076303854</v>
       </c>
       <c r="E36" t="n">
-        <v>3642.065131102779</v>
+        <v>308.4980929573391</v>
       </c>
       <c r="F36" t="n">
-        <v>3558.681292718941</v>
+        <v>225.1142545735007</v>
       </c>
       <c r="G36" t="n">
-        <v>3473.647420938394</v>
+        <v>140.0803827929537</v>
       </c>
       <c r="H36" t="n">
-        <v>3435.303794776969</v>
+        <v>101.7367566315285</v>
       </c>
       <c r="I36" t="n">
-        <v>3447.155529077814</v>
+        <v>113.5884909323738</v>
       </c>
       <c r="J36" t="n">
-        <v>3479.677593864375</v>
+        <v>146.1105557189354</v>
       </c>
       <c r="K36" t="n">
-        <v>3535.262982622875</v>
+        <v>469.1121296407393</v>
       </c>
       <c r="L36" t="n">
-        <v>3610.004397471709</v>
+        <v>543.8535444895732</v>
       </c>
       <c r="M36" t="n">
-        <v>4784.363454918011</v>
+        <v>631.0732502933737</v>
       </c>
       <c r="N36" t="n">
-        <v>4873.891606804104</v>
+        <v>720.6014021794662</v>
       </c>
       <c r="O36" t="n">
-        <v>4955.79237503569</v>
+        <v>802.5021704110528</v>
       </c>
       <c r="P36" t="n">
-        <v>5021.524962040811</v>
+        <v>1687.957923895372</v>
       </c>
       <c r="Q36" t="n">
-        <v>5065.465455683079</v>
+        <v>1731.89841753764</v>
       </c>
       <c r="R36" t="n">
-        <v>5086.837831576425</v>
+        <v>1753.270793430986</v>
       </c>
       <c r="S36" t="n">
-        <v>5029.90611346382</v>
+        <v>1696.339075318381</v>
       </c>
       <c r="T36" t="n">
-        <v>4901.143124614836</v>
+        <v>1567.576086469397</v>
       </c>
       <c r="U36" t="n">
-        <v>4724.829684059098</v>
+        <v>1391.262645913659</v>
       </c>
       <c r="V36" t="n">
-        <v>4525.712166121098</v>
+        <v>1192.145127975658</v>
       </c>
       <c r="W36" t="n">
-        <v>4340.389411854292</v>
+        <v>1006.822373708852</v>
       </c>
       <c r="X36" t="n">
-        <v>4185.521976093172</v>
+        <v>851.9549379477322</v>
       </c>
       <c r="Y36" t="n">
-        <v>4059.036196872393</v>
+        <v>725.469158726953</v>
       </c>
     </row>
     <row r="37">
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1095.555322661513</v>
+        <v>1103.733631181614</v>
       </c>
       <c r="C37" t="n">
-        <v>922.9936111447383</v>
+        <v>996.4659396213332</v>
       </c>
       <c r="D37" t="n">
-        <v>757.115618346261</v>
+        <v>830.5879468228559</v>
       </c>
       <c r="E37" t="n">
         <v>660.8299430735931</v>
@@ -7119,28 +7119,28 @@
         <v>3004.493792249607</v>
       </c>
       <c r="R37" t="n">
-        <v>2996.315483729506</v>
+        <v>3004.493792249607</v>
       </c>
       <c r="S37" t="n">
-        <v>2842.205563872786</v>
+        <v>2850.383872392887</v>
       </c>
       <c r="T37" t="n">
-        <v>2597.584219150398</v>
+        <v>2605.762527670498</v>
       </c>
       <c r="U37" t="n">
-        <v>2319.167279276258</v>
+        <v>2327.345587796359</v>
       </c>
       <c r="V37" t="n">
-        <v>2032.211771146688</v>
+        <v>2040.390079666789</v>
       </c>
       <c r="W37" t="n">
-        <v>1760.18536673298</v>
+        <v>1768.363675253081</v>
       </c>
       <c r="X37" t="n">
-        <v>1514.793612066392</v>
+        <v>1522.971920586493</v>
       </c>
       <c r="Y37" t="n">
-        <v>1287.373941380501</v>
+        <v>1295.552249900602</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1212.753142717037</v>
       </c>
       <c r="F38" t="n">
-        <v>784.8857131262441</v>
+        <v>784.8857131262442</v>
       </c>
       <c r="G38" t="n">
         <v>384.1443060296197</v>
@@ -7171,40 +7171,40 @@
         <v>101.7367566315285</v>
       </c>
       <c r="I38" t="n">
-        <v>126.1314531647156</v>
+        <v>126.1314531647157</v>
       </c>
       <c r="J38" t="n">
-        <v>180.7359509229771</v>
+        <v>615.9906383758951</v>
       </c>
       <c r="K38" t="n">
-        <v>262.5739383067965</v>
+        <v>1532.178917717893</v>
       </c>
       <c r="L38" t="n">
-        <v>1439.161164519147</v>
+        <v>1633.706177677383</v>
       </c>
       <c r="M38" t="n">
-        <v>2137.094156487497</v>
+        <v>1746.674816591009</v>
       </c>
       <c r="N38" t="n">
-        <v>2251.890746083821</v>
+        <v>2251.890746083823</v>
       </c>
       <c r="O38" t="n">
-        <v>3340.469576961906</v>
+        <v>3340.469576961907</v>
       </c>
       <c r="P38" t="n">
-        <v>4261.29563062869</v>
+        <v>4261.295630628691</v>
       </c>
       <c r="Q38" t="n">
         <v>4877.270213960353</v>
       </c>
       <c r="R38" t="n">
-        <v>5086.837831576425</v>
+        <v>5086.837831576426</v>
       </c>
       <c r="S38" t="n">
-        <v>5018.144226043304</v>
+        <v>5018.144226043305</v>
       </c>
       <c r="T38" t="n">
-        <v>4800.950496202531</v>
+        <v>4800.950496202532</v>
       </c>
       <c r="U38" t="n">
         <v>4541.780707461958</v>
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>604.1652576471897</v>
+        <v>604.1652576471898</v>
       </c>
       <c r="C39" t="n">
-        <v>497.708796483832</v>
+        <v>497.7087964838321</v>
       </c>
       <c r="D39" t="n">
-        <v>402.6185076303853</v>
+        <v>402.6185076303854</v>
       </c>
       <c r="E39" t="n">
-        <v>308.498092957339</v>
+        <v>308.4980929573391</v>
       </c>
       <c r="F39" t="n">
-        <v>225.1142545735006</v>
+        <v>225.1142545735007</v>
       </c>
       <c r="G39" t="n">
-        <v>140.0803827929536</v>
+        <v>140.0803827929537</v>
       </c>
       <c r="H39" t="n">
         <v>101.7367566315285</v>
@@ -7259,22 +7259,22 @@
         <v>201.695944477435</v>
       </c>
       <c r="L39" t="n">
-        <v>276.437359326269</v>
+        <v>276.4373593262691</v>
       </c>
       <c r="M39" t="n">
-        <v>363.6570651300694</v>
+        <v>363.6570651300695</v>
       </c>
       <c r="N39" t="n">
-        <v>453.1852170161619</v>
+        <v>453.185217016162</v>
       </c>
       <c r="O39" t="n">
-        <v>535.0859852477486</v>
+        <v>1548.88759506605</v>
       </c>
       <c r="P39" t="n">
-        <v>1030.046207168957</v>
+        <v>1614.620182071172</v>
       </c>
       <c r="Q39" t="n">
-        <v>1614.7256394433</v>
+        <v>1658.560675713439</v>
       </c>
       <c r="R39" t="n">
         <v>1753.270793430986</v>
@@ -7295,10 +7295,10 @@
         <v>1006.822373708852</v>
       </c>
       <c r="X39" t="n">
-        <v>851.9549379477321</v>
+        <v>851.9549379477322</v>
       </c>
       <c r="Y39" t="n">
-        <v>725.4691587269529</v>
+        <v>725.469158726953</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1095.555322661513</v>
+        <v>1103.733631181617</v>
       </c>
       <c r="C40" t="n">
-        <v>922.9936111447383</v>
+        <v>931.171919664842</v>
       </c>
       <c r="D40" t="n">
-        <v>757.115618346261</v>
+        <v>765.2939268663647</v>
       </c>
       <c r="E40" t="n">
-        <v>587.3576145969982</v>
+        <v>595.5359231171019</v>
       </c>
       <c r="F40" t="n">
-        <v>410.6505605587545</v>
+        <v>418.8288690788581</v>
       </c>
       <c r="G40" t="n">
-        <v>245.3537349184273</v>
+        <v>318.8260633950221</v>
       </c>
       <c r="H40" t="n">
-        <v>108.0694828678976</v>
+        <v>181.5418113444924</v>
       </c>
       <c r="I40" t="n">
         <v>101.7367566315285</v>
@@ -7338,46 +7338,46 @@
         <v>517.0070814240158</v>
       </c>
       <c r="L40" t="n">
-        <v>978.1223946467927</v>
+        <v>978.1223946467953</v>
       </c>
       <c r="M40" t="n">
-        <v>1482.844023511416</v>
+        <v>1482.844023511418</v>
       </c>
       <c r="N40" t="n">
-        <v>1969.2649354913</v>
+        <v>1969.264935491303</v>
       </c>
       <c r="O40" t="n">
-        <v>2429.725040058862</v>
+        <v>2429.725040058865</v>
       </c>
       <c r="P40" t="n">
-        <v>2812.135557612112</v>
+        <v>2812.135557612115</v>
       </c>
       <c r="Q40" t="n">
-        <v>3004.493792249607</v>
+        <v>3004.49379224961</v>
       </c>
       <c r="R40" t="n">
-        <v>2996.315483729506</v>
+        <v>3004.49379224961</v>
       </c>
       <c r="S40" t="n">
-        <v>2842.205563872786</v>
+        <v>2850.383872392889</v>
       </c>
       <c r="T40" t="n">
-        <v>2597.584219150398</v>
+        <v>2605.762527670501</v>
       </c>
       <c r="U40" t="n">
-        <v>2319.167279276258</v>
+        <v>2327.345587796362</v>
       </c>
       <c r="V40" t="n">
-        <v>2032.211771146688</v>
+        <v>2040.390079666792</v>
       </c>
       <c r="W40" t="n">
-        <v>1760.18536673298</v>
+        <v>1768.363675253084</v>
       </c>
       <c r="X40" t="n">
-        <v>1514.793612066392</v>
+        <v>1522.971920586496</v>
       </c>
       <c r="Y40" t="n">
-        <v>1287.373941380501</v>
+        <v>1295.552249900604</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1086.219633084804</v>
+        <v>1711.699486625924</v>
       </c>
       <c r="C41" t="n">
-        <v>648.0771602682275</v>
+        <v>1323.758561015382</v>
       </c>
       <c r="D41" t="n">
-        <v>648.0771602682275</v>
+        <v>887.8487761898266</v>
       </c>
       <c r="E41" t="n">
-        <v>459.9813465990343</v>
+        <v>887.8487761898266</v>
       </c>
       <c r="F41" t="n">
         <v>459.9813465990343</v>
@@ -7411,22 +7411,22 @@
         <v>83.63463603559688</v>
       </c>
       <c r="J41" t="n">
-        <v>573.4938212467763</v>
+        <v>138.2391337938583</v>
       </c>
       <c r="K41" t="n">
-        <v>981.5518555276038</v>
+        <v>871.3333851361789</v>
       </c>
       <c r="L41" t="n">
-        <v>1083.079115487095</v>
+        <v>972.8606450956698</v>
       </c>
       <c r="M41" t="n">
-        <v>1196.04775440072</v>
+        <v>1085.829284009295</v>
       </c>
       <c r="N41" t="n">
-        <v>1310.844343997044</v>
+        <v>1200.625873605619</v>
       </c>
       <c r="O41" t="n">
-        <v>2043.938595339365</v>
+        <v>1933.72012494794</v>
       </c>
       <c r="P41" t="n">
         <v>2136.454774172752</v>
@@ -7441,22 +7441,22 @@
         <v>2961.996975120488</v>
       </c>
       <c r="T41" t="n">
-        <v>2744.803245279715</v>
+        <v>2961.996975120488</v>
       </c>
       <c r="U41" t="n">
-        <v>2744.803245279715</v>
+        <v>2961.996975120488</v>
       </c>
       <c r="V41" t="n">
-        <v>2744.803245279715</v>
+        <v>2961.996975120488</v>
       </c>
       <c r="W41" t="n">
-        <v>2339.947790690748</v>
+        <v>2557.141520531521</v>
       </c>
       <c r="X41" t="n">
-        <v>1920.805327270059</v>
+        <v>2137.999057110831</v>
       </c>
       <c r="Y41" t="n">
-        <v>1512.519203569712</v>
+        <v>2137.999057110831</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>59.23993950240975</v>
       </c>
       <c r="I42" t="n">
-        <v>71.09167380325506</v>
+        <v>97.15534696371266</v>
       </c>
       <c r="J42" t="n">
-        <v>103.6137385898167</v>
+        <v>454.2357367164866</v>
       </c>
       <c r="K42" t="n">
-        <v>159.1991273483163</v>
+        <v>509.8211254749861</v>
       </c>
       <c r="L42" t="n">
-        <v>233.9405421971503</v>
+        <v>584.5625403238201</v>
       </c>
       <c r="M42" t="n">
-        <v>764.7335001872248</v>
+        <v>671.7822461276206</v>
       </c>
       <c r="N42" t="n">
-        <v>1497.827751529545</v>
+        <v>761.3103980137131</v>
       </c>
       <c r="O42" t="n">
-        <v>1579.728519761132</v>
+        <v>843.2111662452998</v>
       </c>
       <c r="P42" t="n">
-        <v>1645.461106766254</v>
+        <v>987.5493900398382</v>
       </c>
       <c r="Q42" t="n">
-        <v>1689.401600408521</v>
+        <v>1572.228822314182</v>
       </c>
       <c r="R42" t="n">
         <v>1710.773976301867</v>
@@ -7575,13 +7575,13 @@
         <v>474.5102642948971</v>
       </c>
       <c r="L43" t="n">
-        <v>935.6255775176741</v>
+        <v>935.6255775176739</v>
       </c>
       <c r="M43" t="n">
-        <v>1440.347206382296</v>
+        <v>1440.347206382297</v>
       </c>
       <c r="N43" t="n">
-        <v>1926.768118362181</v>
+        <v>1926.768118362182</v>
       </c>
       <c r="O43" t="n">
         <v>2387.228222929743</v>
@@ -7596,19 +7596,19 @@
         <v>2961.996975120488</v>
       </c>
       <c r="S43" t="n">
-        <v>2807.887055263767</v>
+        <v>2807.887055263768</v>
       </c>
       <c r="T43" t="n">
-        <v>2563.265710541379</v>
+        <v>2563.26571054138</v>
       </c>
       <c r="U43" t="n">
-        <v>2284.848770667239</v>
+        <v>2284.84877066724</v>
       </c>
       <c r="V43" t="n">
         <v>1997.89326253767</v>
       </c>
       <c r="W43" t="n">
-        <v>1725.866858123961</v>
+        <v>1725.866858123962</v>
       </c>
       <c r="X43" t="n">
         <v>1545.769123413868</v>
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2467.003799102459</v>
+        <v>2195.675778673664</v>
       </c>
       <c r="C44" t="n">
-        <v>2028.861326285883</v>
+        <v>1757.533305857087</v>
       </c>
       <c r="D44" t="n">
-        <v>1592.951541460327</v>
+        <v>1321.623521031531</v>
       </c>
       <c r="E44" t="n">
-        <v>1159.176796618622</v>
+        <v>887.8487761898266</v>
       </c>
       <c r="F44" t="n">
-        <v>742.3888959971255</v>
+        <v>459.9813465990343</v>
       </c>
       <c r="G44" t="n">
-        <v>341.6474889005009</v>
+        <v>59.23993950240975</v>
       </c>
       <c r="H44" t="n">
         <v>59.23993950240975</v>
@@ -7651,25 +7651,25 @@
         <v>573.4938212467763</v>
       </c>
       <c r="K44" t="n">
-        <v>1150.705920280661</v>
+        <v>655.3318086305957</v>
       </c>
       <c r="L44" t="n">
-        <v>1252.233180240152</v>
+        <v>756.8590685900866</v>
       </c>
       <c r="M44" t="n">
-        <v>1365.201819153777</v>
+        <v>1202.445179689266</v>
       </c>
       <c r="N44" t="n">
-        <v>1479.998408750101</v>
+        <v>1935.539431031587</v>
       </c>
       <c r="O44" t="n">
-        <v>2213.092660092422</v>
+        <v>2043.938595339365</v>
       </c>
       <c r="P44" t="n">
-        <v>2305.608838925809</v>
+        <v>2136.454774172752</v>
       </c>
       <c r="Q44" t="n">
-        <v>2921.583422257472</v>
+        <v>2752.429357504415</v>
       </c>
       <c r="R44" t="n">
         <v>2961.996975120488</v>
@@ -7678,22 +7678,22 @@
         <v>2893.303369587367</v>
       </c>
       <c r="T44" t="n">
-        <v>2893.303369587367</v>
+        <v>2676.109639746594</v>
       </c>
       <c r="U44" t="n">
-        <v>2893.303369587367</v>
+        <v>2416.93985100602</v>
       </c>
       <c r="V44" t="n">
-        <v>2893.303369587367</v>
+        <v>2416.93985100602</v>
       </c>
       <c r="W44" t="n">
-        <v>2893.303369587367</v>
+        <v>2195.675778673664</v>
       </c>
       <c r="X44" t="n">
-        <v>2893.303369587367</v>
+        <v>2195.675778673664</v>
       </c>
       <c r="Y44" t="n">
-        <v>2893.303369587367</v>
+        <v>2195.675778673664</v>
       </c>
     </row>
     <row r="45">
@@ -7730,19 +7730,19 @@
         <v>454.2357367164866</v>
       </c>
       <c r="K45" t="n">
-        <v>588.4267622644032</v>
+        <v>509.8211254749861</v>
       </c>
       <c r="L45" t="n">
-        <v>663.1681771132372</v>
+        <v>584.5625403238201</v>
       </c>
       <c r="M45" t="n">
-        <v>750.3878829170377</v>
+        <v>671.7822461276206</v>
       </c>
       <c r="N45" t="n">
-        <v>839.9160348031302</v>
+        <v>761.3103980137131</v>
       </c>
       <c r="O45" t="n">
-        <v>921.8168030347168</v>
+        <v>843.2111662452998</v>
       </c>
       <c r="P45" t="n">
         <v>987.5493900398382</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1053.058505532394</v>
+        <v>1126.530834008989</v>
       </c>
       <c r="C46" t="n">
-        <v>880.496794015619</v>
+        <v>953.9691224922143</v>
       </c>
       <c r="D46" t="n">
-        <v>714.6188012171417</v>
+        <v>788.091129693737</v>
       </c>
       <c r="E46" t="n">
-        <v>544.8607974678789</v>
+        <v>618.3331259444743</v>
       </c>
       <c r="F46" t="n">
-        <v>368.1537434296351</v>
+        <v>441.6260719062305</v>
       </c>
       <c r="G46" t="n">
-        <v>202.8569177893079</v>
+        <v>276.3292462659034</v>
       </c>
       <c r="H46" t="n">
         <v>139.0449942153736</v>
@@ -7806,52 +7806,52 @@
         <v>59.23993950240975</v>
       </c>
       <c r="J46" t="n">
-        <v>166.2229229686835</v>
+        <v>166.222922968683</v>
       </c>
       <c r="K46" t="n">
-        <v>474.5102642948971</v>
+        <v>474.5102642948966</v>
       </c>
       <c r="L46" t="n">
-        <v>935.6255775176741</v>
+        <v>935.6255775176735</v>
       </c>
       <c r="M46" t="n">
-        <v>1440.347206382297</v>
+        <v>1440.347206382296</v>
       </c>
       <c r="N46" t="n">
-        <v>1926.768118362182</v>
+        <v>1926.768118362181</v>
       </c>
       <c r="O46" t="n">
-        <v>2387.228222929744</v>
+        <v>2387.228222929743</v>
       </c>
       <c r="P46" t="n">
-        <v>2769.638740482993</v>
+        <v>2769.638740482992</v>
       </c>
       <c r="Q46" t="n">
         <v>2961.996975120488</v>
       </c>
       <c r="R46" t="n">
-        <v>2953.818666600387</v>
+        <v>2961.996975120488</v>
       </c>
       <c r="S46" t="n">
-        <v>2799.708746743666</v>
+        <v>2807.887055263767</v>
       </c>
       <c r="T46" t="n">
-        <v>2555.087402021278</v>
+        <v>2563.265710541379</v>
       </c>
       <c r="U46" t="n">
-        <v>2276.670462147139</v>
+        <v>2350.142790623734</v>
       </c>
       <c r="V46" t="n">
-        <v>1989.714954017569</v>
+        <v>2063.187282494164</v>
       </c>
       <c r="W46" t="n">
-        <v>1717.688549603861</v>
+        <v>1791.160878080456</v>
       </c>
       <c r="X46" t="n">
-        <v>1472.296794937273</v>
+        <v>1545.769123413868</v>
       </c>
       <c r="Y46" t="n">
-        <v>1244.877124251381</v>
+        <v>1318.349452727977</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O2" t="n">
-        <v>407.152590549595</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -8063,7 +8063,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8145,19 +8145,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>44.02620412648071</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q5" t="n">
         <v>424.2958575201044</v>
@@ -8291,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8382,19 +8382,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>117.3049970300782</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,13 +8467,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q8" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8540,22 +8540,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P9" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="N9" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R9" t="n">
-        <v>52.98895607821123</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>657.834610059092</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>95.28836860306455</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,10 +8704,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>631.00513841873</v>
       </c>
       <c r="P11" t="n">
-        <v>647.0485580898321</v>
+        <v>329.5151988858672</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8771,7 +8771,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>79.39963312062332</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8780,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>79.39963312062343</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>657.8346100590921</v>
       </c>
       <c r="L14" t="n">
-        <v>637.9464559422523</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>626.3895075037324</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>624.543092672724</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>234.1741480187866</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>302.6857272455045</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>79.39963312062332</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>79.39963312062343</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>3.032066034258207</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>394.3629695924144</v>
       </c>
       <c r="M17" t="n">
-        <v>1157.599721617717</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1098.120557214649</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>79.39963312062321</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>100.0390388062842</v>
       </c>
       <c r="N20" t="n">
-        <v>590.8730838936638</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9637,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>761.7357755634177</v>
+        <v>394.3629695924146</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9661,7 +9661,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9725,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1098.120557214649</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>79.39963312062321</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9880,19 +9880,19 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>394.3629695924128</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>93.93760736711101</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157522</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>651.9275238201519</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>79.39963312062332</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10111,22 +10111,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>235.2962476021403</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1013.329389053866</v>
+        <v>1157.599721617717</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>79.39963312062218</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10202,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1098.120557214649</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,10 +10351,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>151.2218844462722</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>394.3629695924128</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>79.39963312062218</v>
+        <v>270.1173587508124</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,25 +10588,25 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1157.599721617717</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>992.831670907306</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>419.7938329541539</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10667,13 +10667,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>270.1173587508124</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1098.120557214647</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10822,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>590.8730838936617</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>394.3629695924146</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P39" t="n">
-        <v>433.563267592007</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>74.07852709515214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>329.5151988858668</v>
+        <v>657.834610059092</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11074,10 +11074,10 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>631.00513841873</v>
+        <v>631.0051384187298</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>111.3317882741665</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11147,22 +11147,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>448.0537900871456</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>650.0667671275031</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>79.39963312062332</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,19 +11299,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>500.3778905556213</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>335.9772446318726</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>624.5430926727242</v>
       </c>
       <c r="O44" t="n">
-        <v>631.00513841873</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,22 +11378,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>79.39963312062332</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>396.7339930256583</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>279.5834739041102</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>68.00666947778936</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>215.0217925423652</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.5780908531684</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>139.661429256254</v>
       </c>
       <c r="X11" t="n">
-        <v>397.9622994065289</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>64.6410797569291</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>8.096525434899778</v>
       </c>
       <c r="S13" t="n">
-        <v>72.73760519182972</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>69.146365604023</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>150.4092055793935</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>396.7339930256583</v>
       </c>
       <c r="H14" t="n">
         <v>279.5834739041102</v>
@@ -23554,13 +23554,13 @@
         <v>256.5780908531684</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>72.73760519182945</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>72.73760519182972</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>72.73760519182891</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>72.73760519182891</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>72.73760519182891</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>64.64107975692536</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>8.096525434899778</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>72.73760519182891</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>64.64107975692896</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>8.096525434899778</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>72.73760519182891</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>8.096525434899778</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>64.6410797569289</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>72.7376051918253</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>8.096525434899778</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>64.64107975692531</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>64.64107975692892</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>8.096525434899778</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>72.73760519182886</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25314,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>64.64107975692897</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>72.73760519182883</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>8.096525434899778</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>64.64107975692626</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>72.73760519182885</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>8.096525434899778</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25630,16 +25630,16 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>49.69953173397471</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>243.2221418607865</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>68.00666947778936</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>215.0217925423652</v>
       </c>
       <c r="U41" t="n">
         <v>256.5780908531684</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>64.64107975692943</v>
+        <v>64.64107975692897</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25876,13 +25876,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>10.96873367960268</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>279.5834739041102</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,16 +25918,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>215.0217925423652</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.5780908531684</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>181.7554684340444</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>72.73760519182943</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>8.096525434899778</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>64.641079756929</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>440051.9574498252</v>
+        <v>440051.9574498254</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>646006.2156932226</v>
+        <v>646006.2156932227</v>
       </c>
     </row>
     <row r="9">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>440051.9574498254</v>
+        <v>440051.9574498253</v>
       </c>
     </row>
     <row r="16">
@@ -26322,13 +26322,13 @@
         <v>402110.4899178064</v>
       </c>
       <c r="E2" t="n">
-        <v>277728.4332680204</v>
+        <v>277728.4332680205</v>
       </c>
       <c r="F2" t="n">
         <v>277728.4332680204</v>
       </c>
       <c r="G2" t="n">
-        <v>400801.2130243535</v>
+        <v>400801.2130243534</v>
       </c>
       <c r="H2" t="n">
         <v>400801.2130243535</v>
@@ -26337,25 +26337,25 @@
         <v>400801.2130243535</v>
       </c>
       <c r="J2" t="n">
-        <v>400801.2130243534</v>
+        <v>400801.2130243535</v>
       </c>
       <c r="K2" t="n">
-        <v>400801.2130243535</v>
+        <v>400801.2130243536</v>
       </c>
       <c r="L2" t="n">
         <v>400801.2130243534</v>
       </c>
       <c r="M2" t="n">
-        <v>400801.2130243534</v>
+        <v>400801.2130243535</v>
       </c>
       <c r="N2" t="n">
-        <v>400801.2130243534</v>
+        <v>400801.2130243535</v>
       </c>
       <c r="O2" t="n">
         <v>277728.4332680204</v>
       </c>
       <c r="P2" t="n">
-        <v>277728.4332680204</v>
+        <v>277728.4332680205</v>
       </c>
     </row>
     <row r="3">
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>111014.4653449901</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>78799.14866954146</v>
+        <v>78799.14866954145</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26432,28 +26432,28 @@
         <v>70309.12320163194</v>
       </c>
       <c r="G4" t="n">
+        <v>112417.4850813283</v>
+      </c>
+      <c r="H4" t="n">
         <v>112417.4850813282</v>
       </c>
-      <c r="H4" t="n">
-        <v>112417.4850813283</v>
-      </c>
       <c r="I4" t="n">
-        <v>112417.4850813283</v>
+        <v>112417.4850813282</v>
       </c>
       <c r="J4" t="n">
         <v>112417.4850813282</v>
       </c>
       <c r="K4" t="n">
-        <v>112417.4850813282</v>
+        <v>112417.4850813283</v>
       </c>
       <c r="L4" t="n">
         <v>112417.4850813283</v>
       </c>
       <c r="M4" t="n">
-        <v>112417.4850813282</v>
+        <v>112417.4850813283</v>
       </c>
       <c r="N4" t="n">
-        <v>112417.4850813282</v>
+        <v>112417.4850813283</v>
       </c>
       <c r="O4" t="n">
         <v>70309.12320163193</v>
@@ -26478,22 +26478,22 @@
         <v>59424.78813722234</v>
       </c>
       <c r="E5" t="n">
-        <v>48546.38253915668</v>
+        <v>48546.38253915669</v>
       </c>
       <c r="F5" t="n">
         <v>48546.38253915668</v>
       </c>
       <c r="G5" t="n">
-        <v>80843.96355728693</v>
+        <v>80843.96355728694</v>
       </c>
       <c r="H5" t="n">
-        <v>80843.96355728693</v>
+        <v>80843.96355728694</v>
       </c>
       <c r="I5" t="n">
-        <v>80843.96355728693</v>
+        <v>80843.96355728694</v>
       </c>
       <c r="J5" t="n">
-        <v>80843.96355728693</v>
+        <v>80843.96355728692</v>
       </c>
       <c r="K5" t="n">
         <v>80843.96355728693</v>
@@ -26502,10 +26502,10 @@
         <v>80843.96355728693</v>
       </c>
       <c r="M5" t="n">
-        <v>80843.96355728692</v>
+        <v>80843.96355728694</v>
       </c>
       <c r="N5" t="n">
-        <v>80843.96355728692</v>
+        <v>80843.96355728694</v>
       </c>
       <c r="O5" t="n">
         <v>48546.38253915668</v>
@@ -26527,43 +26527,43 @@
         <v>112196.1425573126</v>
       </c>
       <c r="D6" t="n">
-        <v>112196.1425573127</v>
+        <v>112196.1425573126</v>
       </c>
       <c r="E6" t="n">
-        <v>-65410.69864490046</v>
+        <v>-65825.30550039979</v>
       </c>
       <c r="F6" t="n">
-        <v>158872.9275272318</v>
+        <v>158458.3206717325</v>
       </c>
       <c r="G6" t="n">
-        <v>61943.01285030683</v>
+        <v>61938.64859399525</v>
       </c>
       <c r="H6" t="n">
-        <v>207539.7643857383</v>
+        <v>207535.4001294268</v>
       </c>
       <c r="I6" t="n">
-        <v>207539.7643857383</v>
+        <v>207535.4001294268</v>
       </c>
       <c r="J6" t="n">
-        <v>96525.2990407481</v>
+        <v>96520.9347844367</v>
       </c>
       <c r="K6" t="n">
-        <v>207539.7643857384</v>
+        <v>207535.4001294269</v>
       </c>
       <c r="L6" t="n">
-        <v>207539.7643857382</v>
+        <v>207535.4001294267</v>
       </c>
       <c r="M6" t="n">
-        <v>128740.6157161969</v>
+        <v>128736.2514598853</v>
       </c>
       <c r="N6" t="n">
-        <v>207539.7643857383</v>
+        <v>207535.4001294267</v>
       </c>
       <c r="O6" t="n">
-        <v>158872.9275272318</v>
+        <v>158458.3206717325</v>
       </c>
       <c r="P6" t="n">
-        <v>158872.9275272318</v>
+        <v>158458.3206717325</v>
       </c>
     </row>
   </sheetData>
@@ -26712,16 +26712,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.25079798891474e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26798,7 +26798,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="E4" t="n">
-        <v>740.4992437801219</v>
+        <v>740.499243780122</v>
       </c>
       <c r="F4" t="n">
         <v>740.4992437801219</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201042</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27384,22 +27384,22 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7850600954743</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>216.0002346748356</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159.0826894754696</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27548,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>13.17237381334232</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,10 +27587,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27599,7 +27599,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -27621,13 +27621,13 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
+        <v>7.254829457195569</v>
+      </c>
+      <c r="E5" t="n">
+        <v>189.7010470627603</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>400</v>
-      </c>
-      <c r="F5" t="n">
-        <v>196.5432550408248</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27636,7 +27636,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>114.848179570207</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -27788,13 +27788,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27836,7 +27836,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>164.1642248496252</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9.465190568306582</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7.254829457195569</v>
+      </c>
+      <c r="E8" t="n">
         <v>400</v>
-      </c>
-      <c r="C8" t="n">
-        <v>400</v>
-      </c>
-      <c r="D8" t="n">
-        <v>395.238234579987</v>
-      </c>
-      <c r="E8" t="n">
-        <v>5.14113987318342</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27870,7 +27870,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27918,10 +27918,10 @@
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>180.235856494454</v>
       </c>
     </row>
     <row r="9">
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>139.9003459411027</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -28061,16 +28061,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>63.12277694276105</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28869,7 +28869,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-3.348081657766396e-13</v>
       </c>
     </row>
     <row r="21">
@@ -28997,7 +28997,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>3.393552105990239e-12</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29708,7 +29708,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>3.758651504979533e-12</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -29748,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -30410,7 +30410,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>2.628932051052417e-12</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -31752,22 +31752,22 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6498600373104545</v>
+        <v>0.6498600373104546</v>
       </c>
       <c r="H11" t="n">
-        <v>6.655379107105694</v>
+        <v>6.655379107105695</v>
       </c>
       <c r="I11" t="n">
-        <v>25.05372908841132</v>
+        <v>25.05372908841133</v>
       </c>
       <c r="J11" t="n">
-        <v>55.15605834167824</v>
+        <v>55.15605834167825</v>
       </c>
       <c r="K11" t="n">
-        <v>82.66463372102979</v>
+        <v>82.6646337210298</v>
       </c>
       <c r="L11" t="n">
-        <v>102.5527878378696</v>
+        <v>102.5527878378697</v>
       </c>
       <c r="M11" t="n">
         <v>114.1097362763894</v>
@@ -31779,22 +31779,22 @@
         <v>109.4941053613919</v>
       </c>
       <c r="P11" t="n">
-        <v>93.45068569029006</v>
+        <v>93.45068569029009</v>
       </c>
       <c r="Q11" t="n">
-        <v>70.17757310410938</v>
+        <v>70.1775731041094</v>
       </c>
       <c r="R11" t="n">
-        <v>40.82177056870287</v>
+        <v>40.82177056870288</v>
       </c>
       <c r="S11" t="n">
         <v>14.808685600212</v>
       </c>
       <c r="T11" t="n">
-        <v>2.844762313326516</v>
+        <v>2.844762313326517</v>
       </c>
       <c r="U11" t="n">
-        <v>0.05198880298483635</v>
+        <v>0.05198880298483636</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3477057737364382</v>
+        <v>0.3477057737364384</v>
       </c>
       <c r="H12" t="n">
-        <v>3.358105762138759</v>
+        <v>3.35810576213876</v>
       </c>
       <c r="I12" t="n">
         <v>11.97144878873264</v>
@@ -31846,34 +31846,34 @@
         <v>56.14685733181776</v>
       </c>
       <c r="L12" t="n">
-        <v>75.49637863518586</v>
+        <v>75.49637863518588</v>
       </c>
       <c r="M12" t="n">
-        <v>88.10071293313173</v>
+        <v>88.10071293313175</v>
       </c>
       <c r="N12" t="n">
-        <v>90.43247665261865</v>
+        <v>90.43247665261867</v>
       </c>
       <c r="O12" t="n">
-        <v>82.72804871877442</v>
+        <v>82.72804871877443</v>
       </c>
       <c r="P12" t="n">
-        <v>66.39655253042565</v>
+        <v>66.39655253042567</v>
       </c>
       <c r="Q12" t="n">
-        <v>44.38433701239167</v>
+        <v>44.38433701239168</v>
       </c>
       <c r="R12" t="n">
         <v>21.58825847812729</v>
       </c>
       <c r="S12" t="n">
-        <v>6.458482244621996</v>
+        <v>6.458482244621997</v>
       </c>
       <c r="T12" t="n">
         <v>1.401498272209591</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02287537985108147</v>
+        <v>0.02287537985108148</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,31 +31910,31 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2915048405066774</v>
+        <v>0.2915048405066775</v>
       </c>
       <c r="H13" t="n">
         <v>2.591743036504825</v>
       </c>
       <c r="I13" t="n">
-        <v>8.766345567237174</v>
+        <v>8.766345567237176</v>
       </c>
       <c r="J13" t="n">
         <v>20.60939222382209</v>
       </c>
       <c r="K13" t="n">
-        <v>33.86756237886669</v>
+        <v>33.8675623788667</v>
       </c>
       <c r="L13" t="n">
-        <v>43.33881965132912</v>
+        <v>43.33881965132913</v>
       </c>
       <c r="M13" t="n">
-        <v>45.69470877142398</v>
+        <v>45.69470877142399</v>
       </c>
       <c r="N13" t="n">
-        <v>44.60819072953549</v>
+        <v>44.6081907295355</v>
       </c>
       <c r="O13" t="n">
-        <v>41.20288418361657</v>
+        <v>41.20288418361658</v>
       </c>
       <c r="P13" t="n">
         <v>35.25618543728032</v>
@@ -31946,7 +31946,7 @@
         <v>13.10711764678206</v>
       </c>
       <c r="S13" t="n">
-        <v>5.080134356830004</v>
+        <v>5.080134356830005</v>
       </c>
       <c r="T13" t="n">
         <v>1.245520682164894</v>
@@ -31989,22 +31989,22 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6498600373104545</v>
+        <v>0.6498600373104546</v>
       </c>
       <c r="H14" t="n">
-        <v>6.655379107105694</v>
+        <v>6.655379107105695</v>
       </c>
       <c r="I14" t="n">
-        <v>25.05372908841132</v>
+        <v>25.05372908841133</v>
       </c>
       <c r="J14" t="n">
-        <v>55.15605834167824</v>
+        <v>55.15605834167825</v>
       </c>
       <c r="K14" t="n">
-        <v>82.66463372102979</v>
+        <v>82.6646337210298</v>
       </c>
       <c r="L14" t="n">
-        <v>102.5527878378696</v>
+        <v>102.5527878378697</v>
       </c>
       <c r="M14" t="n">
         <v>114.1097362763894</v>
@@ -32016,22 +32016,22 @@
         <v>109.4941053613919</v>
       </c>
       <c r="P14" t="n">
-        <v>93.45068569029006</v>
+        <v>93.45068569029009</v>
       </c>
       <c r="Q14" t="n">
-        <v>70.17757310410938</v>
+        <v>70.1775731041094</v>
       </c>
       <c r="R14" t="n">
-        <v>40.82177056870287</v>
+        <v>40.82177056870288</v>
       </c>
       <c r="S14" t="n">
         <v>14.808685600212</v>
       </c>
       <c r="T14" t="n">
-        <v>2.844762313326516</v>
+        <v>2.844762313326517</v>
       </c>
       <c r="U14" t="n">
-        <v>0.05198880298483635</v>
+        <v>0.05198880298483636</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3477057737364382</v>
+        <v>0.3477057737364384</v>
       </c>
       <c r="H15" t="n">
-        <v>3.358105762138759</v>
+        <v>3.35810576213876</v>
       </c>
       <c r="I15" t="n">
         <v>11.97144878873264</v>
@@ -32083,34 +32083,34 @@
         <v>56.14685733181776</v>
       </c>
       <c r="L15" t="n">
-        <v>75.49637863518586</v>
+        <v>75.49637863518588</v>
       </c>
       <c r="M15" t="n">
-        <v>88.10071293313173</v>
+        <v>88.10071293313175</v>
       </c>
       <c r="N15" t="n">
-        <v>90.43247665261865</v>
+        <v>90.43247665261867</v>
       </c>
       <c r="O15" t="n">
-        <v>82.72804871877442</v>
+        <v>82.72804871877443</v>
       </c>
       <c r="P15" t="n">
-        <v>66.39655253042565</v>
+        <v>66.39655253042567</v>
       </c>
       <c r="Q15" t="n">
-        <v>44.38433701239167</v>
+        <v>44.38433701239168</v>
       </c>
       <c r="R15" t="n">
         <v>21.58825847812729</v>
       </c>
       <c r="S15" t="n">
-        <v>6.458482244621996</v>
+        <v>6.458482244621997</v>
       </c>
       <c r="T15" t="n">
         <v>1.401498272209591</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02287537985108147</v>
+        <v>0.02287537985108148</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,31 +32147,31 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2915048405066774</v>
+        <v>0.2915048405066775</v>
       </c>
       <c r="H16" t="n">
         <v>2.591743036504825</v>
       </c>
       <c r="I16" t="n">
-        <v>8.766345567237174</v>
+        <v>8.766345567237176</v>
       </c>
       <c r="J16" t="n">
         <v>20.60939222382209</v>
       </c>
       <c r="K16" t="n">
-        <v>33.86756237886669</v>
+        <v>33.8675623788667</v>
       </c>
       <c r="L16" t="n">
-        <v>43.33881965132912</v>
+        <v>43.33881965132913</v>
       </c>
       <c r="M16" t="n">
-        <v>45.69470877142398</v>
+        <v>45.69470877142399</v>
       </c>
       <c r="N16" t="n">
-        <v>44.60819072953549</v>
+        <v>44.6081907295355</v>
       </c>
       <c r="O16" t="n">
-        <v>41.20288418361657</v>
+        <v>41.20288418361658</v>
       </c>
       <c r="P16" t="n">
         <v>35.25618543728032</v>
@@ -32183,7 +32183,7 @@
         <v>13.10711764678206</v>
       </c>
       <c r="S16" t="n">
-        <v>5.080134356830004</v>
+        <v>5.080134356830005</v>
       </c>
       <c r="T16" t="n">
         <v>1.245520682164894</v>
@@ -32226,22 +32226,22 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6498600373104545</v>
+        <v>0.6498600373104546</v>
       </c>
       <c r="H17" t="n">
-        <v>6.655379107105694</v>
+        <v>6.655379107105695</v>
       </c>
       <c r="I17" t="n">
-        <v>25.05372908841132</v>
+        <v>25.05372908841133</v>
       </c>
       <c r="J17" t="n">
-        <v>55.15605834167824</v>
+        <v>55.15605834167825</v>
       </c>
       <c r="K17" t="n">
-        <v>82.66463372102979</v>
+        <v>82.6646337210298</v>
       </c>
       <c r="L17" t="n">
-        <v>102.5527878378696</v>
+        <v>102.5527878378697</v>
       </c>
       <c r="M17" t="n">
         <v>114.1097362763894</v>
@@ -32253,22 +32253,22 @@
         <v>109.4941053613919</v>
       </c>
       <c r="P17" t="n">
-        <v>93.45068569029006</v>
+        <v>93.45068569029009</v>
       </c>
       <c r="Q17" t="n">
-        <v>70.17757310410938</v>
+        <v>70.1775731041094</v>
       </c>
       <c r="R17" t="n">
-        <v>40.82177056870287</v>
+        <v>40.82177056870288</v>
       </c>
       <c r="S17" t="n">
         <v>14.808685600212</v>
       </c>
       <c r="T17" t="n">
-        <v>2.844762313326516</v>
+        <v>2.844762313326517</v>
       </c>
       <c r="U17" t="n">
-        <v>0.05198880298483635</v>
+        <v>0.05198880298483636</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3477057737364382</v>
+        <v>0.3477057737364384</v>
       </c>
       <c r="H18" t="n">
-        <v>3.358105762138759</v>
+        <v>3.35810576213876</v>
       </c>
       <c r="I18" t="n">
         <v>11.97144878873264</v>
@@ -32320,34 +32320,34 @@
         <v>56.14685733181776</v>
       </c>
       <c r="L18" t="n">
-        <v>75.49637863518586</v>
+        <v>75.49637863518588</v>
       </c>
       <c r="M18" t="n">
-        <v>88.10071293313173</v>
+        <v>88.10071293313175</v>
       </c>
       <c r="N18" t="n">
-        <v>90.43247665261865</v>
+        <v>90.43247665261867</v>
       </c>
       <c r="O18" t="n">
-        <v>82.72804871877442</v>
+        <v>82.72804871877443</v>
       </c>
       <c r="P18" t="n">
-        <v>66.39655253042565</v>
+        <v>66.39655253042567</v>
       </c>
       <c r="Q18" t="n">
-        <v>44.38433701239167</v>
+        <v>44.38433701239168</v>
       </c>
       <c r="R18" t="n">
         <v>21.58825847812729</v>
       </c>
       <c r="S18" t="n">
-        <v>6.458482244621996</v>
+        <v>6.458482244621997</v>
       </c>
       <c r="T18" t="n">
         <v>1.401498272209591</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02287537985108147</v>
+        <v>0.02287537985108148</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,31 +32384,31 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2915048405066774</v>
+        <v>0.2915048405066775</v>
       </c>
       <c r="H19" t="n">
         <v>2.591743036504825</v>
       </c>
       <c r="I19" t="n">
-        <v>8.766345567237174</v>
+        <v>8.766345567237176</v>
       </c>
       <c r="J19" t="n">
         <v>20.60939222382209</v>
       </c>
       <c r="K19" t="n">
-        <v>33.86756237886669</v>
+        <v>33.8675623788667</v>
       </c>
       <c r="L19" t="n">
-        <v>43.33881965132912</v>
+        <v>43.33881965132913</v>
       </c>
       <c r="M19" t="n">
-        <v>45.69470877142398</v>
+        <v>45.69470877142399</v>
       </c>
       <c r="N19" t="n">
-        <v>44.60819072953549</v>
+        <v>44.6081907295355</v>
       </c>
       <c r="O19" t="n">
-        <v>41.20288418361657</v>
+        <v>41.20288418361658</v>
       </c>
       <c r="P19" t="n">
         <v>35.25618543728032</v>
@@ -32420,7 +32420,7 @@
         <v>13.10711764678206</v>
       </c>
       <c r="S19" t="n">
-        <v>5.080134356830004</v>
+        <v>5.080134356830005</v>
       </c>
       <c r="T19" t="n">
         <v>1.245520682164894</v>
@@ -32463,22 +32463,22 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6498600373104545</v>
+        <v>0.6498600373104546</v>
       </c>
       <c r="H20" t="n">
-        <v>6.655379107105694</v>
+        <v>6.655379107105695</v>
       </c>
       <c r="I20" t="n">
-        <v>25.05372908841132</v>
+        <v>25.05372908841133</v>
       </c>
       <c r="J20" t="n">
-        <v>55.15605834167824</v>
+        <v>55.15605834167825</v>
       </c>
       <c r="K20" t="n">
-        <v>82.66463372102979</v>
+        <v>82.6646337210298</v>
       </c>
       <c r="L20" t="n">
-        <v>102.5527878378696</v>
+        <v>102.5527878378697</v>
       </c>
       <c r="M20" t="n">
         <v>114.1097362763894</v>
@@ -32490,22 +32490,22 @@
         <v>109.4941053613919</v>
       </c>
       <c r="P20" t="n">
-        <v>93.45068569029006</v>
+        <v>93.45068569029009</v>
       </c>
       <c r="Q20" t="n">
-        <v>70.17757310410938</v>
+        <v>70.1775731041094</v>
       </c>
       <c r="R20" t="n">
-        <v>40.82177056870287</v>
+        <v>40.82177056870288</v>
       </c>
       <c r="S20" t="n">
         <v>14.808685600212</v>
       </c>
       <c r="T20" t="n">
-        <v>2.844762313326516</v>
+        <v>2.844762313326517</v>
       </c>
       <c r="U20" t="n">
-        <v>0.05198880298483635</v>
+        <v>0.05198880298483636</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3477057737364382</v>
+        <v>0.3477057737364384</v>
       </c>
       <c r="H21" t="n">
-        <v>3.358105762138759</v>
+        <v>3.35810576213876</v>
       </c>
       <c r="I21" t="n">
         <v>11.97144878873264</v>
@@ -32557,34 +32557,34 @@
         <v>56.14685733181776</v>
       </c>
       <c r="L21" t="n">
-        <v>75.49637863518586</v>
+        <v>75.49637863518588</v>
       </c>
       <c r="M21" t="n">
-        <v>88.10071293313173</v>
+        <v>88.10071293313175</v>
       </c>
       <c r="N21" t="n">
-        <v>90.43247665261865</v>
+        <v>90.43247665261867</v>
       </c>
       <c r="O21" t="n">
-        <v>82.72804871877442</v>
+        <v>82.72804871877443</v>
       </c>
       <c r="P21" t="n">
-        <v>66.39655253042565</v>
+        <v>66.39655253042567</v>
       </c>
       <c r="Q21" t="n">
-        <v>44.38433701239167</v>
+        <v>44.38433701239168</v>
       </c>
       <c r="R21" t="n">
         <v>21.58825847812729</v>
       </c>
       <c r="S21" t="n">
-        <v>6.458482244621996</v>
+        <v>6.458482244621997</v>
       </c>
       <c r="T21" t="n">
         <v>1.401498272209591</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02287537985108147</v>
+        <v>0.02287537985108148</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,31 +32621,31 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2915048405066774</v>
+        <v>0.2915048405066775</v>
       </c>
       <c r="H22" t="n">
         <v>2.591743036504825</v>
       </c>
       <c r="I22" t="n">
-        <v>8.766345567237174</v>
+        <v>8.766345567237176</v>
       </c>
       <c r="J22" t="n">
         <v>20.60939222382209</v>
       </c>
       <c r="K22" t="n">
-        <v>33.86756237886669</v>
+        <v>33.8675623788667</v>
       </c>
       <c r="L22" t="n">
-        <v>43.33881965132912</v>
+        <v>43.33881965132913</v>
       </c>
       <c r="M22" t="n">
-        <v>45.69470877142398</v>
+        <v>45.69470877142399</v>
       </c>
       <c r="N22" t="n">
-        <v>44.60819072953549</v>
+        <v>44.6081907295355</v>
       </c>
       <c r="O22" t="n">
-        <v>41.20288418361657</v>
+        <v>41.20288418361658</v>
       </c>
       <c r="P22" t="n">
         <v>35.25618543728032</v>
@@ -32657,7 +32657,7 @@
         <v>13.10711764678206</v>
       </c>
       <c r="S22" t="n">
-        <v>5.080134356830004</v>
+        <v>5.080134356830005</v>
       </c>
       <c r="T22" t="n">
         <v>1.245520682164894</v>
@@ -32700,22 +32700,22 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6498600373104545</v>
+        <v>0.6498600373104546</v>
       </c>
       <c r="H23" t="n">
-        <v>6.655379107105694</v>
+        <v>6.655379107105695</v>
       </c>
       <c r="I23" t="n">
-        <v>25.05372908841132</v>
+        <v>25.05372908841133</v>
       </c>
       <c r="J23" t="n">
-        <v>55.15605834167824</v>
+        <v>55.15605834167825</v>
       </c>
       <c r="K23" t="n">
-        <v>82.66463372102979</v>
+        <v>82.6646337210298</v>
       </c>
       <c r="L23" t="n">
-        <v>102.5527878378696</v>
+        <v>102.5527878378697</v>
       </c>
       <c r="M23" t="n">
         <v>114.1097362763894</v>
@@ -32727,22 +32727,22 @@
         <v>109.4941053613919</v>
       </c>
       <c r="P23" t="n">
-        <v>93.45068569029006</v>
+        <v>93.45068569029009</v>
       </c>
       <c r="Q23" t="n">
-        <v>70.17757310410938</v>
+        <v>70.1775731041094</v>
       </c>
       <c r="R23" t="n">
-        <v>40.82177056870287</v>
+        <v>40.82177056870288</v>
       </c>
       <c r="S23" t="n">
         <v>14.808685600212</v>
       </c>
       <c r="T23" t="n">
-        <v>2.844762313326516</v>
+        <v>2.844762313326517</v>
       </c>
       <c r="U23" t="n">
-        <v>0.05198880298483635</v>
+        <v>0.05198880298483636</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3477057737364382</v>
+        <v>0.3477057737364384</v>
       </c>
       <c r="H24" t="n">
-        <v>3.358105762138759</v>
+        <v>3.35810576213876</v>
       </c>
       <c r="I24" t="n">
         <v>11.97144878873264</v>
@@ -32794,34 +32794,34 @@
         <v>56.14685733181776</v>
       </c>
       <c r="L24" t="n">
-        <v>75.49637863518586</v>
+        <v>75.49637863518588</v>
       </c>
       <c r="M24" t="n">
-        <v>88.10071293313173</v>
+        <v>88.10071293313175</v>
       </c>
       <c r="N24" t="n">
-        <v>90.43247665261865</v>
+        <v>90.43247665261867</v>
       </c>
       <c r="O24" t="n">
-        <v>82.72804871877442</v>
+        <v>82.72804871877443</v>
       </c>
       <c r="P24" t="n">
-        <v>66.39655253042565</v>
+        <v>66.39655253042567</v>
       </c>
       <c r="Q24" t="n">
-        <v>44.38433701239167</v>
+        <v>44.38433701239168</v>
       </c>
       <c r="R24" t="n">
         <v>21.58825847812729</v>
       </c>
       <c r="S24" t="n">
-        <v>6.458482244621996</v>
+        <v>6.458482244621997</v>
       </c>
       <c r="T24" t="n">
         <v>1.401498272209591</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02287537985108147</v>
+        <v>0.02287537985108148</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,31 +32858,31 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2915048405066774</v>
+        <v>0.2915048405066775</v>
       </c>
       <c r="H25" t="n">
         <v>2.591743036504825</v>
       </c>
       <c r="I25" t="n">
-        <v>8.766345567237174</v>
+        <v>8.766345567237176</v>
       </c>
       <c r="J25" t="n">
         <v>20.60939222382209</v>
       </c>
       <c r="K25" t="n">
-        <v>33.86756237886669</v>
+        <v>33.8675623788667</v>
       </c>
       <c r="L25" t="n">
-        <v>43.33881965132912</v>
+        <v>43.33881965132913</v>
       </c>
       <c r="M25" t="n">
-        <v>45.69470877142398</v>
+        <v>45.69470877142399</v>
       </c>
       <c r="N25" t="n">
-        <v>44.60819072953549</v>
+        <v>44.6081907295355</v>
       </c>
       <c r="O25" t="n">
-        <v>41.20288418361657</v>
+        <v>41.20288418361658</v>
       </c>
       <c r="P25" t="n">
         <v>35.25618543728032</v>
@@ -32894,7 +32894,7 @@
         <v>13.10711764678206</v>
       </c>
       <c r="S25" t="n">
-        <v>5.080134356830004</v>
+        <v>5.080134356830005</v>
       </c>
       <c r="T25" t="n">
         <v>1.245520682164894</v>
@@ -32937,22 +32937,22 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6498600373104545</v>
+        <v>0.6498600373104546</v>
       </c>
       <c r="H26" t="n">
-        <v>6.655379107105694</v>
+        <v>6.655379107105695</v>
       </c>
       <c r="I26" t="n">
-        <v>25.05372908841132</v>
+        <v>25.05372908841133</v>
       </c>
       <c r="J26" t="n">
-        <v>55.15605834167824</v>
+        <v>55.15605834167825</v>
       </c>
       <c r="K26" t="n">
-        <v>82.66463372102979</v>
+        <v>82.6646337210298</v>
       </c>
       <c r="L26" t="n">
-        <v>102.5527878378696</v>
+        <v>102.5527878378697</v>
       </c>
       <c r="M26" t="n">
         <v>114.1097362763894</v>
@@ -32964,22 +32964,22 @@
         <v>109.4941053613919</v>
       </c>
       <c r="P26" t="n">
-        <v>93.45068569029006</v>
+        <v>93.45068569029009</v>
       </c>
       <c r="Q26" t="n">
-        <v>70.17757310410938</v>
+        <v>70.1775731041094</v>
       </c>
       <c r="R26" t="n">
-        <v>40.82177056870287</v>
+        <v>40.82177056870288</v>
       </c>
       <c r="S26" t="n">
         <v>14.808685600212</v>
       </c>
       <c r="T26" t="n">
-        <v>2.844762313326516</v>
+        <v>2.844762313326517</v>
       </c>
       <c r="U26" t="n">
-        <v>0.05198880298483635</v>
+        <v>0.05198880298483636</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3477057737364382</v>
+        <v>0.3477057737364384</v>
       </c>
       <c r="H27" t="n">
-        <v>3.358105762138759</v>
+        <v>3.35810576213876</v>
       </c>
       <c r="I27" t="n">
         <v>11.97144878873264</v>
@@ -33031,34 +33031,34 @@
         <v>56.14685733181776</v>
       </c>
       <c r="L27" t="n">
-        <v>75.49637863518586</v>
+        <v>75.49637863518588</v>
       </c>
       <c r="M27" t="n">
-        <v>88.10071293313173</v>
+        <v>88.10071293313175</v>
       </c>
       <c r="N27" t="n">
-        <v>90.43247665261865</v>
+        <v>90.43247665261867</v>
       </c>
       <c r="O27" t="n">
-        <v>82.72804871877442</v>
+        <v>82.72804871877443</v>
       </c>
       <c r="P27" t="n">
-        <v>66.39655253042565</v>
+        <v>66.39655253042567</v>
       </c>
       <c r="Q27" t="n">
-        <v>44.38433701239167</v>
+        <v>44.38433701239168</v>
       </c>
       <c r="R27" t="n">
         <v>21.58825847812729</v>
       </c>
       <c r="S27" t="n">
-        <v>6.458482244621996</v>
+        <v>6.458482244621997</v>
       </c>
       <c r="T27" t="n">
         <v>1.401498272209591</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02287537985108147</v>
+        <v>0.02287537985108148</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,31 +33095,31 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2915048405066774</v>
+        <v>0.2915048405066775</v>
       </c>
       <c r="H28" t="n">
         <v>2.591743036504825</v>
       </c>
       <c r="I28" t="n">
-        <v>8.766345567237174</v>
+        <v>8.766345567237176</v>
       </c>
       <c r="J28" t="n">
         <v>20.60939222382209</v>
       </c>
       <c r="K28" t="n">
-        <v>33.86756237886669</v>
+        <v>33.8675623788667</v>
       </c>
       <c r="L28" t="n">
-        <v>43.33881965132912</v>
+        <v>43.33881965132913</v>
       </c>
       <c r="M28" t="n">
-        <v>45.69470877142398</v>
+        <v>45.69470877142399</v>
       </c>
       <c r="N28" t="n">
-        <v>44.60819072953549</v>
+        <v>44.6081907295355</v>
       </c>
       <c r="O28" t="n">
-        <v>41.20288418361657</v>
+        <v>41.20288418361658</v>
       </c>
       <c r="P28" t="n">
         <v>35.25618543728032</v>
@@ -33131,7 +33131,7 @@
         <v>13.10711764678206</v>
       </c>
       <c r="S28" t="n">
-        <v>5.080134356830004</v>
+        <v>5.080134356830005</v>
       </c>
       <c r="T28" t="n">
         <v>1.245520682164894</v>
@@ -33174,22 +33174,22 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6498600373104545</v>
+        <v>0.6498600373104546</v>
       </c>
       <c r="H29" t="n">
-        <v>6.655379107105694</v>
+        <v>6.655379107105695</v>
       </c>
       <c r="I29" t="n">
-        <v>25.05372908841132</v>
+        <v>25.05372908841133</v>
       </c>
       <c r="J29" t="n">
-        <v>55.15605834167824</v>
+        <v>55.15605834167825</v>
       </c>
       <c r="K29" t="n">
-        <v>82.66463372102979</v>
+        <v>82.6646337210298</v>
       </c>
       <c r="L29" t="n">
-        <v>102.5527878378696</v>
+        <v>102.5527878378697</v>
       </c>
       <c r="M29" t="n">
         <v>114.1097362763894</v>
@@ -33201,22 +33201,22 @@
         <v>109.4941053613919</v>
       </c>
       <c r="P29" t="n">
-        <v>93.45068569029006</v>
+        <v>93.45068569029009</v>
       </c>
       <c r="Q29" t="n">
-        <v>70.17757310410938</v>
+        <v>70.1775731041094</v>
       </c>
       <c r="R29" t="n">
-        <v>40.82177056870287</v>
+        <v>40.82177056870288</v>
       </c>
       <c r="S29" t="n">
         <v>14.808685600212</v>
       </c>
       <c r="T29" t="n">
-        <v>2.844762313326516</v>
+        <v>2.844762313326517</v>
       </c>
       <c r="U29" t="n">
-        <v>0.05198880298483635</v>
+        <v>0.05198880298483636</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3477057737364382</v>
+        <v>0.3477057737364384</v>
       </c>
       <c r="H30" t="n">
-        <v>3.358105762138759</v>
+        <v>3.35810576213876</v>
       </c>
       <c r="I30" t="n">
         <v>11.97144878873264</v>
@@ -33268,34 +33268,34 @@
         <v>56.14685733181776</v>
       </c>
       <c r="L30" t="n">
-        <v>75.49637863518586</v>
+        <v>75.49637863518588</v>
       </c>
       <c r="M30" t="n">
-        <v>88.10071293313173</v>
+        <v>88.10071293313175</v>
       </c>
       <c r="N30" t="n">
-        <v>90.43247665261865</v>
+        <v>90.43247665261867</v>
       </c>
       <c r="O30" t="n">
-        <v>82.72804871877442</v>
+        <v>82.72804871877443</v>
       </c>
       <c r="P30" t="n">
-        <v>66.39655253042565</v>
+        <v>66.39655253042567</v>
       </c>
       <c r="Q30" t="n">
-        <v>44.38433701239167</v>
+        <v>44.38433701239168</v>
       </c>
       <c r="R30" t="n">
         <v>21.58825847812729</v>
       </c>
       <c r="S30" t="n">
-        <v>6.458482244621996</v>
+        <v>6.458482244621997</v>
       </c>
       <c r="T30" t="n">
         <v>1.401498272209591</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02287537985108147</v>
+        <v>0.02287537985108148</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,31 +33332,31 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2915048405066774</v>
+        <v>0.2915048405066775</v>
       </c>
       <c r="H31" t="n">
         <v>2.591743036504825</v>
       </c>
       <c r="I31" t="n">
-        <v>8.766345567237174</v>
+        <v>8.766345567237176</v>
       </c>
       <c r="J31" t="n">
         <v>20.60939222382209</v>
       </c>
       <c r="K31" t="n">
-        <v>33.86756237886669</v>
+        <v>33.8675623788667</v>
       </c>
       <c r="L31" t="n">
-        <v>43.33881965132912</v>
+        <v>43.33881965132913</v>
       </c>
       <c r="M31" t="n">
-        <v>45.69470877142398</v>
+        <v>45.69470877142399</v>
       </c>
       <c r="N31" t="n">
-        <v>44.60819072953549</v>
+        <v>44.6081907295355</v>
       </c>
       <c r="O31" t="n">
-        <v>41.20288418361657</v>
+        <v>41.20288418361658</v>
       </c>
       <c r="P31" t="n">
         <v>35.25618543728032</v>
@@ -33368,7 +33368,7 @@
         <v>13.10711764678206</v>
       </c>
       <c r="S31" t="n">
-        <v>5.080134356830004</v>
+        <v>5.080134356830005</v>
       </c>
       <c r="T31" t="n">
         <v>1.245520682164894</v>
@@ -33411,22 +33411,22 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.6498600373104545</v>
+        <v>0.6498600373104546</v>
       </c>
       <c r="H32" t="n">
-        <v>6.655379107105694</v>
+        <v>6.655379107105695</v>
       </c>
       <c r="I32" t="n">
-        <v>25.05372908841132</v>
+        <v>25.05372908841133</v>
       </c>
       <c r="J32" t="n">
-        <v>55.15605834167824</v>
+        <v>55.15605834167825</v>
       </c>
       <c r="K32" t="n">
-        <v>82.66463372102979</v>
+        <v>82.6646337210298</v>
       </c>
       <c r="L32" t="n">
-        <v>102.5527878378696</v>
+        <v>102.5527878378697</v>
       </c>
       <c r="M32" t="n">
         <v>114.1097362763894</v>
@@ -33438,22 +33438,22 @@
         <v>109.4941053613919</v>
       </c>
       <c r="P32" t="n">
-        <v>93.45068569029006</v>
+        <v>93.45068569029009</v>
       </c>
       <c r="Q32" t="n">
-        <v>70.17757310410938</v>
+        <v>70.1775731041094</v>
       </c>
       <c r="R32" t="n">
-        <v>40.82177056870287</v>
+        <v>40.82177056870288</v>
       </c>
       <c r="S32" t="n">
         <v>14.808685600212</v>
       </c>
       <c r="T32" t="n">
-        <v>2.844762313326516</v>
+        <v>2.844762313326517</v>
       </c>
       <c r="U32" t="n">
-        <v>0.05198880298483635</v>
+        <v>0.05198880298483636</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3477057737364382</v>
+        <v>0.3477057737364384</v>
       </c>
       <c r="H33" t="n">
-        <v>3.358105762138759</v>
+        <v>3.35810576213876</v>
       </c>
       <c r="I33" t="n">
         <v>11.97144878873264</v>
@@ -33505,34 +33505,34 @@
         <v>56.14685733181776</v>
       </c>
       <c r="L33" t="n">
-        <v>75.49637863518586</v>
+        <v>75.49637863518588</v>
       </c>
       <c r="M33" t="n">
-        <v>88.10071293313173</v>
+        <v>88.10071293313175</v>
       </c>
       <c r="N33" t="n">
-        <v>90.43247665261865</v>
+        <v>90.43247665261867</v>
       </c>
       <c r="O33" t="n">
-        <v>82.72804871877442</v>
+        <v>82.72804871877443</v>
       </c>
       <c r="P33" t="n">
-        <v>66.39655253042565</v>
+        <v>66.39655253042567</v>
       </c>
       <c r="Q33" t="n">
-        <v>44.38433701239167</v>
+        <v>44.38433701239168</v>
       </c>
       <c r="R33" t="n">
         <v>21.58825847812729</v>
       </c>
       <c r="S33" t="n">
-        <v>6.458482244621996</v>
+        <v>6.458482244621997</v>
       </c>
       <c r="T33" t="n">
         <v>1.401498272209591</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02287537985108147</v>
+        <v>0.02287537985108148</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,31 +33569,31 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2915048405066774</v>
+        <v>0.2915048405066775</v>
       </c>
       <c r="H34" t="n">
         <v>2.591743036504825</v>
       </c>
       <c r="I34" t="n">
-        <v>8.766345567237174</v>
+        <v>8.766345567237176</v>
       </c>
       <c r="J34" t="n">
         <v>20.60939222382209</v>
       </c>
       <c r="K34" t="n">
-        <v>33.86756237886669</v>
+        <v>33.8675623788667</v>
       </c>
       <c r="L34" t="n">
-        <v>43.33881965132912</v>
+        <v>43.33881965132913</v>
       </c>
       <c r="M34" t="n">
-        <v>45.69470877142398</v>
+        <v>45.69470877142399</v>
       </c>
       <c r="N34" t="n">
-        <v>44.60819072953549</v>
+        <v>44.6081907295355</v>
       </c>
       <c r="O34" t="n">
-        <v>41.20288418361657</v>
+        <v>41.20288418361658</v>
       </c>
       <c r="P34" t="n">
         <v>35.25618543728032</v>
@@ -33605,7 +33605,7 @@
         <v>13.10711764678206</v>
       </c>
       <c r="S34" t="n">
-        <v>5.080134356830004</v>
+        <v>5.080134356830005</v>
       </c>
       <c r="T34" t="n">
         <v>1.245520682164894</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O2" t="n">
-        <v>407.152590549595</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34783,7 +34783,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34795,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34865,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>44.02620412648071</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q5" t="n">
         <v>424.2958575201044</v>
@@ -35011,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35102,19 +35102,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>117.3049970300782</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35187,13 +35187,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q8" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35260,22 +35260,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P9" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="N9" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R9" t="n">
-        <v>52.98895607821123</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35406,16 +35406,16 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>24.64110760927992</v>
+        <v>24.64110760927993</v>
       </c>
       <c r="J11" t="n">
-        <v>55.15605834167823</v>
+        <v>494.8072577890701</v>
       </c>
       <c r="K11" t="n">
-        <v>740.4992437801218</v>
+        <v>82.66463372102965</v>
       </c>
       <c r="L11" t="n">
-        <v>197.8411564409341</v>
+        <v>102.5527878378697</v>
       </c>
       <c r="M11" t="n">
         <v>114.1097362763894</v>
@@ -35424,10 +35424,10 @@
         <v>115.9561511073978</v>
       </c>
       <c r="O11" t="n">
-        <v>109.494105361392</v>
+        <v>740.4992437801219</v>
       </c>
       <c r="P11" t="n">
-        <v>740.499243780122</v>
+        <v>422.9658845761574</v>
       </c>
       <c r="Q11" t="n">
         <v>622.1965488198616</v>
@@ -35485,22 +35485,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>38.29839137505345</v>
+        <v>38.29839137505344</v>
       </c>
       <c r="J12" t="n">
         <v>360.6872623765394</v>
       </c>
       <c r="K12" t="n">
-        <v>56.14685733181773</v>
+        <v>135.546490452441</v>
       </c>
       <c r="L12" t="n">
-        <v>75.49637863518581</v>
+        <v>75.49637863518592</v>
       </c>
       <c r="M12" t="n">
         <v>88.10071293313172</v>
       </c>
       <c r="N12" t="n">
-        <v>169.8321097732421</v>
+        <v>90.43247665261867</v>
       </c>
       <c r="O12" t="n">
         <v>82.7280487187744</v>
@@ -35570,13 +35570,13 @@
         <v>108.0636196629028</v>
       </c>
       <c r="K13" t="n">
-        <v>311.4013548749633</v>
+        <v>311.4013548749632</v>
       </c>
       <c r="L13" t="n">
-        <v>465.7730436593706</v>
+        <v>465.7730436593708</v>
       </c>
       <c r="M13" t="n">
-        <v>509.8198271359823</v>
+        <v>509.8198271359827</v>
       </c>
       <c r="N13" t="n">
         <v>491.334254525136</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>24.64110760927992</v>
+        <v>24.64110760927993</v>
       </c>
       <c r="J14" t="n">
-        <v>55.15605834167823</v>
+        <v>494.8072577890701</v>
       </c>
       <c r="K14" t="n">
-        <v>82.66463372102979</v>
+        <v>740.4992437801219</v>
       </c>
       <c r="L14" t="n">
-        <v>740.4992437801219</v>
+        <v>102.5527878378696</v>
       </c>
       <c r="M14" t="n">
-        <v>740.4992437801219</v>
+        <v>114.1097362763894</v>
       </c>
       <c r="N14" t="n">
-        <v>740.4992437801218</v>
+        <v>115.9561511073978</v>
       </c>
       <c r="O14" t="n">
-        <v>343.6682533801786</v>
+        <v>109.494105361392</v>
       </c>
       <c r="P14" t="n">
-        <v>93.4506856902899</v>
+        <v>396.1364129357946</v>
       </c>
       <c r="Q14" t="n">
-        <v>70.17757310410934</v>
+        <v>622.1965488198616</v>
       </c>
       <c r="R14" t="n">
-        <v>40.82177056870296</v>
+        <v>211.6844622384574</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,10 +35728,10 @@
         <v>360.6872623765394</v>
       </c>
       <c r="K15" t="n">
-        <v>56.14685733181773</v>
+        <v>135.546490452441</v>
       </c>
       <c r="L15" t="n">
-        <v>75.49637863518581</v>
+        <v>75.49637863518592</v>
       </c>
       <c r="M15" t="n">
         <v>88.10071293313172</v>
@@ -35740,7 +35740,7 @@
         <v>90.43247665261867</v>
       </c>
       <c r="O15" t="n">
-        <v>162.1276818393978</v>
+        <v>82.7280487187744</v>
       </c>
       <c r="P15" t="n">
         <v>66.39655253042565</v>
@@ -35810,22 +35810,22 @@
         <v>311.4013548749632</v>
       </c>
       <c r="L16" t="n">
-        <v>465.7730436593705</v>
+        <v>465.7730436593707</v>
       </c>
       <c r="M16" t="n">
-        <v>509.8198271359826</v>
+        <v>509.8198271359828</v>
       </c>
       <c r="N16" t="n">
-        <v>491.3342545251362</v>
+        <v>491.334254525136</v>
       </c>
       <c r="O16" t="n">
-        <v>465.1112167349111</v>
+        <v>465.1112167349113</v>
       </c>
       <c r="P16" t="n">
         <v>386.2732500537873</v>
       </c>
       <c r="Q16" t="n">
-        <v>194.3012471085808</v>
+        <v>194.3012471085804</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>24.64110760927992</v>
+        <v>24.64110760927993</v>
       </c>
       <c r="J17" t="n">
-        <v>58.18812437593645</v>
+        <v>494.8072577890701</v>
       </c>
       <c r="K17" t="n">
-        <v>925.4427064060581</v>
+        <v>925.4427064060582</v>
       </c>
       <c r="L17" t="n">
-        <v>1188.471945669041</v>
+        <v>496.915757430284</v>
       </c>
       <c r="M17" t="n">
-        <v>1271.709457894106</v>
+        <v>114.1097362763894</v>
       </c>
       <c r="N17" t="n">
-        <v>1253.058154578556</v>
+        <v>115.956151107398</v>
       </c>
       <c r="O17" t="n">
-        <v>109.494105361392</v>
+        <v>1099.57457664453</v>
       </c>
       <c r="P17" t="n">
-        <v>93.4506856902899</v>
+        <v>930.127326936145</v>
       </c>
       <c r="Q17" t="n">
-        <v>70.1775731041098</v>
+        <v>622.1965488198612</v>
       </c>
       <c r="R17" t="n">
-        <v>40.82177056870296</v>
+        <v>211.6844622384569</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>11.97144878873263</v>
+        <v>38.29839137505344</v>
       </c>
       <c r="J18" t="n">
-        <v>32.8505704914764</v>
+        <v>360.6872623765394</v>
       </c>
       <c r="K18" t="n">
-        <v>56.14685733181776</v>
+        <v>56.14685733181773</v>
       </c>
       <c r="L18" t="n">
-        <v>75.49637863518583</v>
+        <v>75.49637863518592</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.221270147781</v>
+        <v>88.10071293313172</v>
       </c>
       <c r="N18" t="n">
-        <v>90.43247665261856</v>
+        <v>90.43247665261867</v>
       </c>
       <c r="O18" t="n">
-        <v>82.72804871877452</v>
+        <v>82.7280487187744</v>
       </c>
       <c r="P18" t="n">
-        <v>66.39655253042565</v>
+        <v>145.7961856510489</v>
       </c>
       <c r="Q18" t="n">
-        <v>44.3843370123916</v>
+        <v>590.5852851255995</v>
       </c>
       <c r="R18" t="n">
-        <v>21.58825847812727</v>
+        <v>139.9445999875613</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,22 +36117,22 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>24.64110760927992</v>
+        <v>24.64110760927993</v>
       </c>
       <c r="J20" t="n">
-        <v>55.15605834167825</v>
+        <v>494.8072577890701</v>
       </c>
       <c r="K20" t="n">
-        <v>82.66463372102982</v>
+        <v>82.66463372102976</v>
       </c>
       <c r="L20" t="n">
-        <v>1188.471945669041</v>
+        <v>102.5527878378697</v>
       </c>
       <c r="M20" t="n">
-        <v>114.1097362763894</v>
+        <v>214.1487750826736</v>
       </c>
       <c r="N20" t="n">
-        <v>706.8292350010615</v>
+        <v>1253.058154578556</v>
       </c>
       <c r="O20" t="n">
         <v>1099.57457664453</v>
@@ -36293,10 +36293,10 @@
         <v>491.3342545251362</v>
       </c>
       <c r="O22" t="n">
-        <v>465.1112167349111</v>
+        <v>465.1112167349143</v>
       </c>
       <c r="P22" t="n">
-        <v>386.2732500537873</v>
+        <v>386.2732500537877</v>
       </c>
       <c r="Q22" t="n">
         <v>194.3012471085813</v>
@@ -36354,22 +36354,22 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>24.64110760927992</v>
+        <v>24.64110760927993</v>
       </c>
       <c r="J23" t="n">
-        <v>55.15605834167825</v>
+        <v>494.8072577890701</v>
       </c>
       <c r="K23" t="n">
-        <v>82.66463372102982</v>
+        <v>925.4427064060582</v>
       </c>
       <c r="L23" t="n">
-        <v>1188.471945669041</v>
+        <v>102.5527878378696</v>
       </c>
       <c r="M23" t="n">
         <v>114.1097362763894</v>
       </c>
       <c r="N23" t="n">
-        <v>877.6919266708155</v>
+        <v>510.3191206998124</v>
       </c>
       <c r="O23" t="n">
         <v>1099.57457664453</v>
@@ -36381,7 +36381,7 @@
         <v>622.1965488198612</v>
       </c>
       <c r="R23" t="n">
-        <v>40.82177056870296</v>
+        <v>211.6844622384569</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>11.97144878873263</v>
+        <v>38.29839137505344</v>
       </c>
       <c r="J24" t="n">
-        <v>32.8505704914764</v>
+        <v>360.6872623765394</v>
       </c>
       <c r="K24" t="n">
-        <v>56.14685733181776</v>
+        <v>56.14685733181773</v>
       </c>
       <c r="L24" t="n">
-        <v>75.49637863518583</v>
+        <v>75.49637863518592</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.221270147781</v>
+        <v>88.10071293313172</v>
       </c>
       <c r="N24" t="n">
-        <v>90.43247665261856</v>
+        <v>90.43247665261867</v>
       </c>
       <c r="O24" t="n">
-        <v>82.72804871877452</v>
+        <v>82.7280487187744</v>
       </c>
       <c r="P24" t="n">
-        <v>66.39655253042565</v>
+        <v>145.7961856510489</v>
       </c>
       <c r="Q24" t="n">
-        <v>44.3843370123916</v>
+        <v>590.5852851255995</v>
       </c>
       <c r="R24" t="n">
-        <v>21.58825847812727</v>
+        <v>139.9445999875613</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>24.64110760927992</v>
+        <v>24.64110760927993</v>
       </c>
       <c r="J26" t="n">
-        <v>494.8072577890701</v>
+        <v>494.80725778907</v>
       </c>
       <c r="K26" t="n">
-        <v>925.4427064060582</v>
+        <v>925.4427064060581</v>
       </c>
       <c r="L26" t="n">
-        <v>102.5527878378696</v>
+        <v>496.9157574302824</v>
       </c>
       <c r="M26" t="n">
         <v>114.1097362763894</v>
       </c>
       <c r="N26" t="n">
-        <v>1253.058154578556</v>
+        <v>115.956151107398</v>
       </c>
       <c r="O26" t="n">
         <v>1099.57457664453</v>
       </c>
       <c r="P26" t="n">
-        <v>187.3882930574009</v>
+        <v>930.127326936145</v>
       </c>
       <c r="Q26" t="n">
-        <v>622.1965488198612</v>
+        <v>622.1965488198621</v>
       </c>
       <c r="R26" t="n">
         <v>211.6844622384569</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>38.29839137505344</v>
+        <v>11.97144878873264</v>
       </c>
       <c r="J27" t="n">
         <v>360.6872623765394</v>
       </c>
       <c r="K27" t="n">
-        <v>56.14685733181773</v>
+        <v>708.0743811519696</v>
       </c>
       <c r="L27" t="n">
-        <v>75.49637863518581</v>
+        <v>75.49637863518592</v>
       </c>
       <c r="M27" t="n">
         <v>88.10071293313172</v>
       </c>
       <c r="N27" t="n">
-        <v>90.43247665261867</v>
+        <v>90.43247665261856</v>
       </c>
       <c r="O27" t="n">
-        <v>82.7280487187744</v>
+        <v>82.72804871877452</v>
       </c>
       <c r="P27" t="n">
-        <v>145.796185651049</v>
+        <v>66.39655253042565</v>
       </c>
       <c r="Q27" t="n">
-        <v>590.5852851255995</v>
+        <v>44.3843370123916</v>
       </c>
       <c r="R27" t="n">
         <v>139.9445999875613</v>
@@ -36828,25 +36828,25 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>24.64110760927992</v>
+        <v>24.64110760927993</v>
       </c>
       <c r="J29" t="n">
-        <v>55.15605834167825</v>
+        <v>494.80725778907</v>
       </c>
       <c r="K29" t="n">
-        <v>82.66463372102982</v>
+        <v>317.96088132317</v>
       </c>
       <c r="L29" t="n">
         <v>1188.471945669041</v>
       </c>
       <c r="M29" t="n">
-        <v>1127.439125330255</v>
+        <v>1271.709457894106</v>
       </c>
       <c r="N29" t="n">
         <v>1253.058154578556</v>
       </c>
       <c r="O29" t="n">
-        <v>1099.57457664453</v>
+        <v>109.494105361392</v>
       </c>
       <c r="P29" t="n">
         <v>93.4506856902899</v>
@@ -36855,7 +36855,7 @@
         <v>70.1775731041098</v>
       </c>
       <c r="R29" t="n">
-        <v>40.82177056870296</v>
+        <v>211.6844622384569</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>38.2983913750536</v>
+        <v>11.97144878873264</v>
       </c>
       <c r="J30" t="n">
-        <v>360.6872623765394</v>
+        <v>32.85057049147639</v>
       </c>
       <c r="K30" t="n">
-        <v>135.5464904524401</v>
+        <v>56.14685733181776</v>
       </c>
       <c r="L30" t="n">
-        <v>75.49637863518592</v>
+        <v>75.49637863518586</v>
       </c>
       <c r="M30" t="n">
-        <v>88.10071293313194</v>
+        <v>88.10071293313172</v>
       </c>
       <c r="N30" t="n">
-        <v>90.43247665261879</v>
+        <v>1188.553033867267</v>
       </c>
       <c r="O30" t="n">
         <v>82.72804871877452</v>
@@ -36931,10 +36931,10 @@
         <v>66.39655253042565</v>
       </c>
       <c r="Q30" t="n">
-        <v>590.5852851255995</v>
+        <v>44.3843370123916</v>
       </c>
       <c r="R30" t="n">
-        <v>139.9445999875616</v>
+        <v>21.58825847812727</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36995,16 +36995,16 @@
         <v>311.4013548749633</v>
       </c>
       <c r="L31" t="n">
-        <v>465.7730436593744</v>
+        <v>465.7730436593706</v>
       </c>
       <c r="M31" t="n">
-        <v>509.8198271359826</v>
+        <v>509.8198271359827</v>
       </c>
       <c r="N31" t="n">
         <v>491.3342545251362</v>
       </c>
       <c r="O31" t="n">
-        <v>465.1112167349111</v>
+        <v>465.1112167349147</v>
       </c>
       <c r="P31" t="n">
         <v>386.2732500537873</v>
@@ -37065,22 +37065,22 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>24.64110760927992</v>
+        <v>24.64110760927993</v>
       </c>
       <c r="J32" t="n">
-        <v>494.8072577890701</v>
+        <v>494.80725778907</v>
       </c>
       <c r="K32" t="n">
-        <v>233.8865181673019</v>
+        <v>925.4427064060581</v>
       </c>
       <c r="L32" t="n">
-        <v>1188.471945669041</v>
+        <v>496.9157574302824</v>
       </c>
       <c r="M32" t="n">
         <v>114.1097362763894</v>
       </c>
       <c r="N32" t="n">
-        <v>115.9561511073975</v>
+        <v>115.956151107398</v>
       </c>
       <c r="O32" t="n">
         <v>1099.57457664453</v>
@@ -37089,7 +37089,7 @@
         <v>930.127326936145</v>
       </c>
       <c r="Q32" t="n">
-        <v>622.1965488198612</v>
+        <v>622.1965488198621</v>
       </c>
       <c r="R32" t="n">
         <v>211.6844622384569</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>38.2983913750536</v>
+        <v>11.97144878873264</v>
       </c>
       <c r="J33" t="n">
-        <v>360.6872623765394</v>
+        <v>32.85057049147639</v>
       </c>
       <c r="K33" t="n">
-        <v>135.5464904524401</v>
+        <v>326.2642160826301</v>
       </c>
       <c r="L33" t="n">
-        <v>75.49637863518592</v>
+        <v>75.49637863518586</v>
       </c>
       <c r="M33" t="n">
-        <v>88.10071293313194</v>
+        <v>88.10071293313172</v>
       </c>
       <c r="N33" t="n">
-        <v>90.43247665261879</v>
+        <v>90.43247665261867</v>
       </c>
       <c r="O33" t="n">
-        <v>82.72804871877452</v>
+        <v>82.7280487187744</v>
       </c>
       <c r="P33" t="n">
-        <v>66.39655253042565</v>
+        <v>894.3997509942623</v>
       </c>
       <c r="Q33" t="n">
-        <v>590.5852851255995</v>
+        <v>44.3843370123916</v>
       </c>
       <c r="R33" t="n">
-        <v>139.9445999875616</v>
+        <v>21.58825847812727</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,25 +37308,25 @@
         <v>55.15605834167825</v>
       </c>
       <c r="K35" t="n">
-        <v>82.66463372102979</v>
+        <v>925.4427064060581</v>
       </c>
       <c r="L35" t="n">
-        <v>1188.471945669041</v>
+        <v>102.5527878378696</v>
       </c>
       <c r="M35" t="n">
-        <v>1271.709457894106</v>
+        <v>114.1097362763894</v>
       </c>
       <c r="N35" t="n">
-        <v>1108.787822014704</v>
+        <v>1253.058154578556</v>
       </c>
       <c r="O35" t="n">
         <v>1099.57457664453</v>
       </c>
       <c r="P35" t="n">
-        <v>93.4506856902899</v>
+        <v>930.1273269361445</v>
       </c>
       <c r="Q35" t="n">
-        <v>70.1775731041098</v>
+        <v>489.9714060582637</v>
       </c>
       <c r="R35" t="n">
         <v>40.82177056870296</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>11.97144878873269</v>
+        <v>11.97144878873264</v>
       </c>
       <c r="J36" t="n">
-        <v>32.85057049147645</v>
+        <v>32.85057049147639</v>
       </c>
       <c r="K36" t="n">
-        <v>56.14685733181796</v>
+        <v>326.2642160826301</v>
       </c>
       <c r="L36" t="n">
-        <v>75.49637863518592</v>
+        <v>75.49637863518586</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.221270147779</v>
+        <v>88.10071293313172</v>
       </c>
       <c r="N36" t="n">
-        <v>90.43247665261879</v>
+        <v>90.43247665261867</v>
       </c>
       <c r="O36" t="n">
-        <v>82.72804871877452</v>
+        <v>82.7280487187744</v>
       </c>
       <c r="P36" t="n">
-        <v>66.39655253042565</v>
+        <v>894.3997509942623</v>
       </c>
       <c r="Q36" t="n">
-        <v>44.38433701239137</v>
+        <v>44.3843370123916</v>
       </c>
       <c r="R36" t="n">
-        <v>21.5882584781275</v>
+        <v>21.58825847812727</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>24.64110760927993</v>
       </c>
       <c r="J38" t="n">
-        <v>55.15605834167825</v>
+        <v>494.8072577890701</v>
       </c>
       <c r="K38" t="n">
-        <v>82.66463372102979</v>
+        <v>925.4427064060582</v>
       </c>
       <c r="L38" t="n">
-        <v>1188.471945669041</v>
+        <v>102.5527878378696</v>
       </c>
       <c r="M38" t="n">
-        <v>704.9828201700511</v>
+        <v>114.1097362763894</v>
       </c>
       <c r="N38" t="n">
-        <v>115.956151107398</v>
+        <v>510.3191206998124</v>
       </c>
       <c r="O38" t="n">
         <v>1099.57457664453</v>
@@ -37563,7 +37563,7 @@
         <v>930.127326936145</v>
       </c>
       <c r="Q38" t="n">
-        <v>622.1965488198621</v>
+        <v>622.1965488198612</v>
       </c>
       <c r="R38" t="n">
         <v>211.6844622384569</v>
@@ -37627,25 +37627,25 @@
         <v>56.14685733181776</v>
       </c>
       <c r="L39" t="n">
-        <v>75.49637863518586</v>
+        <v>75.49637863518589</v>
       </c>
       <c r="M39" t="n">
-        <v>88.10071293313172</v>
+        <v>88.10071293313177</v>
       </c>
       <c r="N39" t="n">
         <v>90.43247665261867</v>
       </c>
       <c r="O39" t="n">
-        <v>82.7280487187744</v>
+        <v>1106.770078838271</v>
       </c>
       <c r="P39" t="n">
-        <v>499.9598201224327</v>
+        <v>66.39655253042565</v>
       </c>
       <c r="Q39" t="n">
-        <v>590.5852851255995</v>
+        <v>44.3843370123916</v>
       </c>
       <c r="R39" t="n">
-        <v>139.9445999875613</v>
+        <v>95.66678557327941</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37706,10 +37706,10 @@
         <v>311.4013548749633</v>
       </c>
       <c r="L40" t="n">
-        <v>465.7730436593706</v>
+        <v>465.7730436593732</v>
       </c>
       <c r="M40" t="n">
-        <v>509.8198271359827</v>
+        <v>509.8198271359828</v>
       </c>
       <c r="N40" t="n">
         <v>491.3342545251362</v>
@@ -37779,25 +37779,25 @@
         <v>24.64110760927993</v>
       </c>
       <c r="J41" t="n">
-        <v>494.8072577890701</v>
+        <v>55.15605834167823</v>
       </c>
       <c r="K41" t="n">
-        <v>412.1798326068965</v>
+        <v>740.4992437801218</v>
       </c>
       <c r="L41" t="n">
-        <v>102.5527878378697</v>
+        <v>102.5527878378696</v>
       </c>
       <c r="M41" t="n">
-        <v>114.1097362763894</v>
+        <v>114.1097362763896</v>
       </c>
       <c r="N41" t="n">
         <v>115.9561511073978</v>
       </c>
       <c r="O41" t="n">
-        <v>740.499243780122</v>
+        <v>740.4992437801218</v>
       </c>
       <c r="P41" t="n">
-        <v>93.4506856902899</v>
+        <v>204.7824739644566</v>
       </c>
       <c r="Q41" t="n">
         <v>622.1965488198616</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>11.97144878873264</v>
+        <v>38.29839137505345</v>
       </c>
       <c r="J42" t="n">
-        <v>32.8505704914764</v>
+        <v>360.6872623765394</v>
       </c>
       <c r="K42" t="n">
-        <v>56.14685733181776</v>
+        <v>56.14685733181773</v>
       </c>
       <c r="L42" t="n">
-        <v>75.49637863518586</v>
+        <v>75.49637863518592</v>
       </c>
       <c r="M42" t="n">
-        <v>536.1545030202774</v>
+        <v>88.10071293313172</v>
       </c>
       <c r="N42" t="n">
-        <v>740.4992437801219</v>
+        <v>90.43247665261867</v>
       </c>
       <c r="O42" t="n">
-        <v>82.72804871877452</v>
+        <v>82.7280487187744</v>
       </c>
       <c r="P42" t="n">
-        <v>66.39655253042565</v>
+        <v>145.796185651049</v>
       </c>
       <c r="Q42" t="n">
-        <v>44.3843370123916</v>
+        <v>590.5852851255994</v>
       </c>
       <c r="R42" t="n">
-        <v>21.58825847812727</v>
+        <v>139.9445999875613</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37940,13 +37940,13 @@
         <v>108.0636196629028</v>
       </c>
       <c r="K43" t="n">
-        <v>311.4013548749633</v>
+        <v>311.4013548749632</v>
       </c>
       <c r="L43" t="n">
-        <v>465.7730436593707</v>
+        <v>465.7730436593706</v>
       </c>
       <c r="M43" t="n">
-        <v>509.8198271359821</v>
+        <v>509.8198271359827</v>
       </c>
       <c r="N43" t="n">
         <v>491.3342545251362</v>
@@ -38019,19 +38019,19 @@
         <v>494.8072577890701</v>
       </c>
       <c r="K44" t="n">
-        <v>583.0425242766511</v>
+        <v>82.66463372102965</v>
       </c>
       <c r="L44" t="n">
-        <v>102.5527878378696</v>
+        <v>102.5527878378697</v>
       </c>
       <c r="M44" t="n">
-        <v>114.1097362763894</v>
+        <v>450.086980908262</v>
       </c>
       <c r="N44" t="n">
-        <v>115.9561511073978</v>
+        <v>740.499243780122</v>
       </c>
       <c r="O44" t="n">
-        <v>740.499243780122</v>
+        <v>109.494105361392</v>
       </c>
       <c r="P44" t="n">
         <v>93.4506856902899</v>
@@ -38040,7 +38040,7 @@
         <v>622.1965488198616</v>
       </c>
       <c r="R44" t="n">
-        <v>40.82177056870296</v>
+        <v>211.6844622384574</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>360.6872623765394</v>
       </c>
       <c r="K45" t="n">
-        <v>135.546490452441</v>
+        <v>56.14685733181773</v>
       </c>
       <c r="L45" t="n">
         <v>75.49637863518592</v>
@@ -38113,7 +38113,7 @@
         <v>82.7280487187744</v>
       </c>
       <c r="P45" t="n">
-        <v>66.39655253042565</v>
+        <v>145.796185651049</v>
       </c>
       <c r="Q45" t="n">
         <v>590.5852851255994</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>108.0636196629028</v>
+        <v>108.0636196629023</v>
       </c>
       <c r="K46" t="n">
-        <v>311.4013548749632</v>
+        <v>311.4013548749633</v>
       </c>
       <c r="L46" t="n">
-        <v>465.7730436593707</v>
+        <v>465.7730436593706</v>
       </c>
       <c r="M46" t="n">
-        <v>509.8198271359828</v>
+        <v>509.8198271359827</v>
       </c>
       <c r="N46" t="n">
-        <v>491.334254525136</v>
+        <v>491.3342545251362</v>
       </c>
       <c r="O46" t="n">
         <v>465.1112167349113</v>
@@ -38195,7 +38195,7 @@
         <v>386.2732500537873</v>
       </c>
       <c r="Q46" t="n">
-        <v>194.3012471085804</v>
+        <v>194.3012471085808</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
